--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1423,25 +1423,10 @@
     <t>VitalSignTO.value1 and VitalSignTO.units</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1486,9 +1471,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1519,9 +1501,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1541,9 +1520,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1566,9 +1542,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -2511,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ90"/>
+  <dimension ref="A1:AQ89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8575,14 +8548,16 @@
         <v>83</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>437</v>
@@ -8626,11 +8601,9 @@
         <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8642,29 +8615,25 @@
         <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>438</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8688,13 +8657,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8712,7 +8681,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>437</v>
+        <v>169</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8721,28 +8690,28 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>446</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>448</v>
+        <v>170</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>83</v>
@@ -8750,21 +8719,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8776,15 +8745,17 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8821,31 +8792,31 @@
         <v>83</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8871,21 +8842,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8894,21 +8865,23 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8923,10 +8896,10 @@
         <v>83</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>83</v>
@@ -8944,31 +8917,31 @@
         <v>83</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>176</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8977,10 +8950,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>170</v>
+        <v>463</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8994,10 +8967,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9014,30 +8987,30 @@
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>459</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="R53" t="s" s="2">
         <v>83</v>
       </c>
@@ -9048,22 +9021,22 @@
         <v>83</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -9081,7 +9054,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -9102,10 +9075,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -9119,10 +9092,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9139,30 +9112,28 @@
         <v>83</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>83</v>
       </c>
@@ -9182,13 +9153,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -9206,7 +9177,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9227,10 +9198,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -9244,7 +9215,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>481</v>
@@ -9270,7 +9241,7 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>482</v>
@@ -9338,7 +9309,7 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>105</v>
@@ -9350,7 +9321,7 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>487</v>
@@ -9370,7 +9341,7 @@
         <v>488</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9393,15 +9364,17 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>492</v>
       </c>
@@ -9461,7 +9434,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9473,10 +9446,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9490,10 +9463,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9504,31 +9477,31 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9553,13 +9526,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9577,7 +9550,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9586,7 +9559,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9598,7 +9571,7 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>486</v>
+        <v>136</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>503</v>
@@ -9622,7 +9595,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9632,7 +9605,7 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
@@ -9644,16 +9617,16 @@
         <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9681,10 +9654,10 @@
         <v>196</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9708,10 +9681,10 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9720,19 +9693,19 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>83</v>
@@ -9740,24 +9713,24 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>514</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
@@ -9766,19 +9739,19 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9803,13 +9776,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9827,7 +9800,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9845,7 +9818,7 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>521</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>522</v>
@@ -9857,7 +9830,7 @@
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>524</v>
+        <v>83</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>83</v>
@@ -9865,10 +9838,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9879,10 +9852,10 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>83</v>
@@ -9891,20 +9864,16 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>526</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9952,19 +9921,19 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9973,10 +9942,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>532</v>
+        <v>170</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9990,21 +9959,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -10016,15 +9985,17 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -10061,31 +10032,31 @@
         <v>83</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -10111,21 +10082,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -10134,19 +10105,19 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>139</v>
+        <v>527</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>140</v>
+        <v>528</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
+        <v>529</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>142</v>
+        <v>530</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10184,31 +10155,31 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -10217,10 +10188,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>170</v>
+        <v>532</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -10234,10 +10205,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10260,17 +10231,15 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>536</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10319,7 +10288,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10343,7 +10312,7 @@
         <v>136</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10357,10 +10326,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10368,7 +10337,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
@@ -10383,13 +10352,13 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>539</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10440,10 +10409,10 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>93</v>
@@ -10464,7 +10433,7 @@
         <v>136</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10473,15 +10442,15 @@
         <v>83</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>83</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10489,10 +10458,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -10501,18 +10470,20 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10537,13 +10508,13 @@
         <v>83</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>83</v>
+        <v>549</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>83</v>
+        <v>551</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -10561,10 +10532,10 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>93</v>
@@ -10579,30 +10550,30 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>136</v>
+        <v>553</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>83</v>
+        <v>555</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10628,15 +10599,17 @@
         <v>191</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10660,13 +10633,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10684,7 +10657,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10702,19 +10675,19 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>561</v>
+        <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>564</v>
+        <v>83</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>83</v>
@@ -10748,20 +10721,18 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>191</v>
+        <v>566</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O67" t="s" s="2">
         <v>569</v>
       </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10785,13 +10756,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>570</v>
+        <v>83</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10827,19 +10798,19 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>83</v>
+        <v>570</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>83</v>
@@ -11007,7 +10978,9 @@
       <c r="N69" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -11061,31 +11034,31 @@
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>589</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>588</v>
+        <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>591</v>
+        <v>83</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>83</v>
@@ -11107,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -11119,20 +11092,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>593</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>594</v>
+        <v>167</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -11180,19 +11149,19 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>592</v>
+        <v>169</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>598</v>
+        <v>83</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -11201,10 +11170,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>599</v>
+        <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11218,21 +11187,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -11244,15 +11213,17 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -11301,19 +11272,19 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -11339,14 +11310,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>138</v>
+        <v>595</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11359,24 +11330,26 @@
         <v>83</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>140</v>
+        <v>596</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>173</v>
+        <v>597</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11424,7 +11397,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>176</v>
+        <v>598</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11448,7 +11421,7 @@
         <v>83</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11462,46 +11435,42 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>604</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>139</v>
+        <v>600</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11549,19 +11518,19 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>83</v>
+        <v>603</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11570,10 +11539,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>136</v>
+        <v>605</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11587,10 +11556,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11613,13 +11582,13 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11670,7 +11639,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11679,7 +11648,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11691,10 +11660,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11708,10 +11677,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11734,16 +11703,20 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>609</v>
+        <v>191</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11767,13 +11740,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>83</v>
+        <v>615</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>83</v>
+        <v>616</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11791,7 +11764,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11800,7 +11773,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>612</v>
+        <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11809,13 +11782,13 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>83</v>
+        <v>617</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>618</v>
+        <v>514</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11843,7 +11816,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -11892,7 +11865,7 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>117</v>
+        <v>549</v>
       </c>
       <c r="Y76" t="s" s="2">
         <v>624</v>
@@ -11922,7 +11895,7 @@
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
@@ -11934,13 +11907,13 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11954,10 +11927,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11968,7 +11941,7 @@
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
@@ -11980,19 +11953,17 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>191</v>
+        <v>627</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -12017,13 +11988,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>633</v>
+        <v>83</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>634</v>
+        <v>83</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -12041,13 +12012,13 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>83</v>
@@ -12059,13 +12030,13 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>626</v>
+        <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>627</v>
+        <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>523</v>
+        <v>631</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -12079,10 +12050,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12105,18 +12076,16 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>636</v>
+        <v>166</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>639</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -12164,7 +12133,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -12185,10 +12154,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -12202,10 +12171,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12216,7 +12185,7 @@
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>83</v>
@@ -12225,18 +12194,20 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>166</v>
+        <v>637</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12285,13 +12256,13 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>83</v>
@@ -12306,10 +12277,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -12323,10 +12294,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12349,16 +12320,16 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12408,7 +12379,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12429,10 +12400,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12446,10 +12417,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12463,7 +12434,7 @@
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>83</v>
@@ -12472,18 +12443,20 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12531,7 +12504,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12543,7 +12516,7 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>654</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
@@ -12552,19 +12525,19 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ81" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ81" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -12583,32 +12556,28 @@
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>593</v>
+        <v>166</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>659</v>
+        <v>167</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12656,19 +12625,19 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>658</v>
+        <v>169</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>663</v>
+        <v>83</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12677,10 +12646,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>664</v>
+        <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>665</v>
+        <v>170</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12689,26 +12658,26 @@
         <v>83</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>666</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>83</v>
@@ -12720,15 +12689,17 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12777,19 +12748,19 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
@@ -12815,14 +12786,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>138</v>
+        <v>595</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12835,24 +12806,26 @@
         <v>83</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>140</v>
+        <v>596</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>173</v>
+        <v>597</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12900,7 +12873,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>176</v>
+        <v>598</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12924,7 +12897,7 @@
         <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12938,45 +12911,45 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>604</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>142</v>
+        <v>664</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>148</v>
+        <v>665</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -13001,13 +12974,13 @@
         <v>83</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -13025,34 +12998,34 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>83</v>
+        <v>666</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -13063,10 +13036,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13074,7 +13047,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>93</v>
@@ -13089,19 +13062,19 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>191</v>
+        <v>668</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="O86" t="s" s="2">
-        <v>674</v>
+        <v>442</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -13129,10 +13102,10 @@
         <v>196</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -13150,16 +13123,16 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>105</v>
@@ -13168,19 +13141,19 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>83</v>
@@ -13188,10 +13161,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13211,22 +13184,22 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>680</v>
-      </c>
       <c r="O87" t="s" s="2">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -13254,10 +13227,10 @@
         <v>196</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>83</v>
@@ -13275,7 +13248,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -13284,7 +13257,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -13293,19 +13266,19 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>682</v>
+        <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>447</v>
+        <v>136</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>83</v>
@@ -13313,24 +13286,24 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>83</v>
@@ -13342,16 +13315,16 @@
         <v>191</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>684</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>685</v>
+        <v>507</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>686</v>
+        <v>508</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13379,10 +13352,10 @@
         <v>196</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13400,16 +13373,16 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>687</v>
+        <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13418,19 +13391,19 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>83</v>
@@ -13438,14 +13411,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>514</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13464,19 +13437,19 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>515</v>
+        <v>681</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>516</v>
+        <v>682</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13501,13 +13474,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13525,7 +13498,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13543,151 +13516,26 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>521</v>
+        <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>524</v>
+        <v>83</v>
       </c>
       <c r="AQ89" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ90" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ90">
+  <autoFilter ref="A1:AQ89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13697,7 +13545,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,15 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation resource for Pain
-- Should be based on US-Core for Vital-Signs Observation Resource
-- status of `final`
-- category code of `vital-signs`
-- code should be LOINC if available
-  - [Concept Map from VitalSignTO.type.name to LOINC code](ConceptMap-ObservationTypeTOVsLoincCode.html)
-- patient
-- Not preserving the VitalSignTO.low and .high as they are referenceRange
-- Note the pain integer is stored in quantity, as that is what PGHD has been using.</t>
+    <t>A profile on the Observation resource for Pain</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -122,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-vital-signs</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.vitals</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -173,6 +165,9 @@
   </si>
   <si>
     <t>VitalSignTO Pain</t>
+  </si>
+  <si>
+    <t>VitalSignTO</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -2355,7 +2350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ88"/>
+  <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2405,6 +2400,7 @@
     <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="72.09765625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="72.09765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2529,13 +2525,16 @@
       <c r="AQ1" t="s" s="2">
         <v>48</v>
       </c>
+      <c r="AR1" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2546,7 +2545,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2555,19 +2554,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2617,13 +2616,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2650,15 +2649,18 @@
         <v>40</v>
       </c>
       <c r="AQ2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2669,7 +2671,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2678,16 +2680,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2738,19 +2740,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2771,15 +2773,18 @@
         <v>40</v>
       </c>
       <c r="AQ3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR3" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2790,28 +2795,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2861,19 +2866,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2894,15 +2899,18 @@
         <v>40</v>
       </c>
       <c r="AQ4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR4" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2913,7 +2921,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2925,16 +2933,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2960,13 +2968,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2984,19 +2992,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -3017,26 +3025,29 @@
         <v>40</v>
       </c>
       <c r="AQ5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR5" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -3048,16 +3059,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3107,19 +3118,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -3131,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -3140,19 +3151,22 @@
         <v>40</v>
       </c>
       <c r="AQ6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR6" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3171,16 +3185,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3230,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3254,7 +3268,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -3263,19 +3277,22 @@
         <v>40</v>
       </c>
       <c r="AQ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR7" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3294,16 +3311,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3353,7 +3370,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3365,7 +3382,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3377,7 +3394,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -3386,19 +3403,22 @@
         <v>40</v>
       </c>
       <c r="AQ8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR8" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3411,25 +3431,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3478,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3490,7 +3510,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3502,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3511,15 +3531,18 @@
         <v>40</v>
       </c>
       <c r="AQ9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR9" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3527,7 +3550,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3539,20 +3562,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3589,17 +3612,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3611,46 +3634,49 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AR10" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -3662,20 +3688,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3724,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3736,36 +3762,39 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR11" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3776,7 +3805,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3788,13 +3817,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3845,13 +3874,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3869,7 +3898,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3878,19 +3907,22 @@
         <v>40</v>
       </c>
       <c r="AQ12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR12" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3909,16 +3941,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3956,19 +3988,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3980,7 +4012,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3992,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -4001,15 +4033,18 @@
         <v>40</v>
       </c>
       <c r="AQ13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR13" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4017,34 +4052,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -4054,7 +4089,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -4069,13 +4104,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -4093,19 +4128,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -4114,10 +4149,10 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -4126,15 +4161,18 @@
         <v>40</v>
       </c>
       <c r="AQ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR14" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4145,7 +4183,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -4154,22 +4192,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -4194,13 +4232,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -4218,19 +4256,19 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -4239,10 +4277,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -4251,15 +4289,18 @@
         <v>40</v>
       </c>
       <c r="AQ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR15" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4270,7 +4311,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4279,22 +4320,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -4307,7 +4348,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -4343,19 +4384,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -4364,10 +4405,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -4376,15 +4417,18 @@
         <v>40</v>
       </c>
       <c r="AQ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4395,7 +4439,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -4404,19 +4448,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4430,7 +4474,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4466,19 +4510,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4487,10 +4531,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4499,15 +4543,18 @@
         <v>40</v>
       </c>
       <c r="AQ17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4518,7 +4565,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4527,16 +4574,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4587,19 +4634,19 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4608,10 +4655,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4620,15 +4667,18 @@
         <v>40</v>
       </c>
       <c r="AQ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR18" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4639,7 +4689,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4648,19 +4698,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4710,19 +4760,19 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4731,10 +4781,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4743,19 +4793,22 @@
         <v>40</v>
       </c>
       <c r="AQ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4771,20 +4824,20 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4833,7 +4886,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4845,19 +4898,19 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4866,19 +4919,22 @@
         <v>40</v>
       </c>
       <c r="AQ20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4894,19 +4950,19 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4956,7 +5012,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4968,19 +5024,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4989,15 +5045,18 @@
         <v>40</v>
       </c>
       <c r="AQ21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR21" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5005,34 +5064,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -5042,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -5057,11 +5116,11 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -5079,48 +5138,51 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AR22" t="s" s="2">
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5128,13 +5190,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -5143,19 +5205,19 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -5180,29 +5242,29 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5214,7 +5276,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -5226,40 +5288,43 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="AR23" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -5268,19 +5333,19 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5305,13 +5370,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -5329,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5341,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -5353,24 +5418,27 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5381,7 +5449,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -5393,13 +5461,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5450,13 +5518,13 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -5474,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -5483,19 +5551,22 @@
         <v>40</v>
       </c>
       <c r="AQ25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5514,16 +5585,16 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5561,19 +5632,19 @@
         <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5585,7 +5656,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -5597,7 +5668,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5606,15 +5677,18 @@
         <v>40</v>
       </c>
       <c r="AQ26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5622,34 +5696,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5698,7 +5772,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5710,7 +5784,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -5719,10 +5793,10 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5731,15 +5805,18 @@
         <v>40</v>
       </c>
       <c r="AQ27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5750,7 +5827,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -5762,13 +5839,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5819,13 +5896,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5843,7 +5920,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5852,19 +5929,22 @@
         <v>40</v>
       </c>
       <c r="AQ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5883,16 +5963,16 @@
         <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5930,19 +6010,19 @@
         <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5954,7 +6034,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -5966,7 +6046,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5975,15 +6055,18 @@
         <v>40</v>
       </c>
       <c r="AQ29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5991,41 +6074,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -6067,19 +6150,19 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -6088,10 +6171,10 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -6100,15 +6183,18 @@
         <v>40</v>
       </c>
       <c r="AQ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6119,7 +6205,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -6128,19 +6214,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6190,19 +6276,19 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -6211,10 +6297,10 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6223,15 +6309,18 @@
         <v>40</v>
       </c>
       <c r="AQ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6239,39 +6328,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>40</v>
@@ -6313,19 +6402,19 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -6334,10 +6423,10 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
@@ -6346,15 +6435,18 @@
         <v>40</v>
       </c>
       <c r="AQ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6365,7 +6457,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -6374,20 +6466,20 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6436,19 +6528,19 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -6457,10 +6549,10 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
@@ -6469,15 +6561,18 @@
         <v>40</v>
       </c>
       <c r="AQ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR33" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6488,7 +6583,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6497,22 +6592,22 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6561,19 +6656,19 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -6582,10 +6677,10 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6594,15 +6689,18 @@
         <v>40</v>
       </c>
       <c r="AQ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6613,7 +6711,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6622,22 +6720,22 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6686,19 +6784,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6707,10 +6805,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6719,50 +6817,53 @@
         <v>40</v>
       </c>
       <c r="AQ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6787,13 +6888,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6811,48 +6912,51 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="AR36" t="s" s="2">
+        <v>326</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6863,7 +6967,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6875,13 +6979,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6932,13 +7036,13 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -6956,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6965,19 +7069,22 @@
         <v>40</v>
       </c>
       <c r="AQ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6996,16 +7103,16 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7043,19 +7150,19 @@
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -7067,7 +7174,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -7079,7 +7186,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -7088,15 +7195,18 @@
         <v>40</v>
       </c>
       <c r="AQ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR38" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7110,28 +7220,28 @@
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -7180,7 +7290,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -7192,7 +7302,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -7201,10 +7311,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -7213,15 +7323,18 @@
         <v>40</v>
       </c>
       <c r="AQ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR39" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7232,31 +7345,31 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -7305,19 +7418,19 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -7326,10 +7439,10 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7338,15 +7451,18 @@
         <v>40</v>
       </c>
       <c r="AQ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR40" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7354,34 +7470,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7430,48 +7546,51 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="AR41" t="s" s="2">
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7491,19 +7610,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7553,7 +7672,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7565,7 +7684,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -7574,31 +7693,34 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR42" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7614,22 +7736,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7678,83 +7800,86 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7791,95 +7916,98 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7928,48 +8056,51 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="AR45" t="s" s="2">
+        <v>376</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7980,7 +8111,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7989,19 +8120,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8051,19 +8182,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -8072,27 +8203,30 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8106,26 +8240,26 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8174,7 +8308,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8186,36 +8320,39 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="AR47" t="s" s="2">
+        <v>394</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8226,31 +8363,31 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8275,13 +8412,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8299,48 +8436,51 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="AR48" t="s" s="2">
+        <v>408</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8351,7 +8491,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -8363,13 +8503,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8420,13 +8560,13 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -8444,7 +8584,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8453,19 +8593,22 @@
         <v>40</v>
       </c>
       <c r="AQ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8484,16 +8627,16 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8531,19 +8674,19 @@
         <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8555,7 +8698,7 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -8567,7 +8710,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8576,15 +8719,18 @@
         <v>40</v>
       </c>
       <c r="AQ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8595,7 +8741,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -8604,22 +8750,22 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8635,10 +8781,10 @@
         <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -8668,19 +8814,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8689,10 +8835,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8701,15 +8847,18 @@
         <v>40</v>
       </c>
       <c r="AQ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8720,35 +8869,35 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -8769,13 +8918,13 @@
         <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -8793,19 +8942,19 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8814,10 +8963,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8826,15 +8975,18 @@
         <v>40</v>
       </c>
       <c r="AQ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8845,7 +8997,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8854,20 +9006,20 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8916,19 +9068,19 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -8937,10 +9089,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8949,15 +9101,18 @@
         <v>40</v>
       </c>
       <c r="AQ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR53" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8968,7 +9123,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -8977,20 +9132,20 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -9039,19 +9194,19 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -9060,10 +9215,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9072,15 +9227,18 @@
         <v>40</v>
       </c>
       <c r="AQ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR54" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9091,7 +9249,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -9100,22 +9258,22 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9164,19 +9322,19 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -9185,10 +9343,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9197,15 +9355,18 @@
         <v>40</v>
       </c>
       <c r="AQ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9219,7 +9380,7 @@
         <v>38</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>40</v>
@@ -9228,19 +9389,19 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9265,13 +9426,13 @@
         <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9289,19 +9450,19 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -9310,10 +9471,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9322,19 +9483,22 @@
         <v>40</v>
       </c>
       <c r="AQ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR56" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9353,19 +9517,19 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9390,13 +9554,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9414,7 +9578,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9426,36 +9590,39 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AQ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9469,7 +9636,7 @@
         <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
@@ -9478,19 +9645,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9539,7 +9706,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9551,7 +9718,7 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -9560,10 +9727,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9572,15 +9739,18 @@
         <v>40</v>
       </c>
       <c r="AQ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9591,7 +9761,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -9603,13 +9773,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9660,13 +9830,13 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -9684,7 +9854,7 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9693,19 +9863,22 @@
         <v>40</v>
       </c>
       <c r="AQ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9724,16 +9897,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9771,19 +9944,19 @@
         <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9795,7 +9968,7 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -9807,7 +9980,7 @@
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
@@ -9816,15 +9989,18 @@
         <v>40</v>
       </c>
       <c r="AQ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9835,7 +10011,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -9844,19 +10020,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9906,19 +10082,19 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -9927,10 +10103,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9939,15 +10115,18 @@
         <v>40</v>
       </c>
       <c r="AQ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9958,7 +10137,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9967,16 +10146,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10027,19 +10206,19 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -10048,10 +10227,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10060,15 +10239,18 @@
         <v>40</v>
       </c>
       <c r="AQ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR62" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10076,10 +10258,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -10088,16 +10270,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10148,19 +10330,19 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10169,10 +10351,10 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10181,15 +10363,18 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="AR63" t="s" s="2">
+        <v>502</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10212,16 +10397,16 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10247,13 +10432,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -10271,48 +10456,51 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AQ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10335,19 +10523,19 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10372,13 +10560,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10396,19 +10584,19 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -10417,10 +10605,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10429,15 +10617,18 @@
         <v>40</v>
       </c>
       <c r="AQ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10460,16 +10651,16 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10519,48 +10710,51 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AQ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10583,16 +10777,16 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10642,48 +10836,51 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AQ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10706,19 +10903,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10767,7 +10964,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10779,7 +10976,7 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
@@ -10788,10 +10985,10 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -10800,15 +10997,18 @@
         <v>40</v>
       </c>
       <c r="AQ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10819,7 +11019,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10831,13 +11031,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10888,13 +11088,13 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
@@ -10912,7 +11112,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10921,19 +11121,22 @@
         <v>40</v>
       </c>
       <c r="AQ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10952,16 +11155,16 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11011,7 +11214,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11023,7 +11226,7 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -11035,7 +11238,7 @@
         <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -11044,19 +11247,22 @@
         <v>40</v>
       </c>
       <c r="AQ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11069,25 +11275,25 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -11136,7 +11342,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11148,7 +11354,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -11160,7 +11366,7 @@
         <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11169,15 +11375,18 @@
         <v>40</v>
       </c>
       <c r="AQ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11188,7 +11397,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -11200,13 +11409,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11257,19 +11466,19 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11278,10 +11487,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11290,15 +11499,18 @@
         <v>40</v>
       </c>
       <c r="AQ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11309,7 +11521,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -11321,13 +11533,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11378,19 +11590,19 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11399,10 +11611,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11411,15 +11623,18 @@
         <v>40</v>
       </c>
       <c r="AQ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11430,7 +11645,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11442,19 +11657,19 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11479,13 +11694,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11503,31 +11718,31 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11536,15 +11751,18 @@
         <v>40</v>
       </c>
       <c r="AQ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR74" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11567,19 +11785,19 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
@@ -11604,13 +11822,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -11628,7 +11846,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11640,19 +11858,19 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11661,15 +11879,18 @@
         <v>40</v>
       </c>
       <c r="AQ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11680,7 +11901,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -11692,17 +11913,17 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11751,19 +11972,19 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11775,7 +11996,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11784,15 +12005,18 @@
         <v>40</v>
       </c>
       <c r="AQ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR76" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11803,7 +12027,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -11815,13 +12039,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11872,19 +12096,19 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
@@ -11893,10 +12117,10 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -11905,15 +12129,18 @@
         <v>40</v>
       </c>
       <c r="AQ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR77" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11933,19 +12160,19 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11995,7 +12222,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12007,7 +12234,7 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
@@ -12016,10 +12243,10 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -12028,15 +12255,18 @@
         <v>40</v>
       </c>
       <c r="AQ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR78" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12056,19 +12286,19 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12118,7 +12348,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12130,7 +12360,7 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -12139,10 +12369,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12151,15 +12381,18 @@
         <v>40</v>
       </c>
       <c r="AQ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12173,28 +12406,28 @@
         <v>38</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12243,7 +12476,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12255,7 +12488,7 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -12264,10 +12497,10 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -12276,15 +12509,18 @@
         <v>40</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>614</v>
+        <v>40</v>
+      </c>
+      <c r="AR80" t="s" s="2">
+        <v>615</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12295,7 +12531,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -12307,13 +12543,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12364,13 +12600,13 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
@@ -12388,7 +12624,7 @@
         <v>40</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12397,19 +12633,22 @@
         <v>40</v>
       </c>
       <c r="AQ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12428,16 +12667,16 @@
         <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12487,7 +12726,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12499,7 +12738,7 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>40</v>
@@ -12511,7 +12750,7 @@
         <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12520,19 +12759,22 @@
         <v>40</v>
       </c>
       <c r="AQ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR82" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12545,25 +12787,25 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -12612,7 +12854,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12624,7 +12866,7 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
@@ -12636,7 +12878,7 @@
         <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>40</v>
@@ -12645,15 +12887,18 @@
         <v>40</v>
       </c>
       <c r="AQ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12661,34 +12906,34 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12713,13 +12958,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -12737,48 +12982,51 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR84" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12789,31 +13037,31 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -12838,13 +13086,13 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -12862,48 +13110,51 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR85" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12914,10 +13165,10 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>40</v>
@@ -12926,19 +13177,19 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -12963,13 +13214,13 @@
         <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -12987,19 +13238,19 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
@@ -13008,10 +13259,10 @@
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -13020,19 +13271,22 @@
         <v>40</v>
       </c>
       <c r="AQ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR86" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13051,19 +13305,19 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13088,13 +13342,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13112,7 +13366,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -13124,36 +13378,39 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AQ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13179,16 +13436,16 @@
         <v>40</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -13237,7 +13494,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -13249,7 +13506,7 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>40</v>
@@ -13258,10 +13515,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -13270,11 +13527,14 @@
         <v>40</v>
       </c>
       <c r="AQ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ88">
+  <autoFilter ref="A1:AR88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1243,6 +1243,9 @@
   </si>
   <si>
     <t>VitalSignTO.recorder and VitalSignTO.observer</t>
+  </si>
+  <si>
+    <t>contained VitalSignTO.recorder and VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -8344,15 +8347,15 @@
         <v>394</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8375,19 +8378,19 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8415,10 +8418,10 @@
         <v>154</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8436,7 +8439,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8445,7 +8448,7 @@
         <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>63</v>
@@ -8454,33 +8457,33 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8601,10 +8604,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8727,10 +8730,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8753,19 +8756,19 @@
         <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8781,10 +8784,10 @@
         <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -8814,7 +8817,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8835,10 +8838,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8855,10 +8858,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8884,20 +8887,20 @@
         <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -8921,10 +8924,10 @@
         <v>142</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -8942,7 +8945,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8963,10 +8966,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8983,10 +8986,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9012,14 +9015,14 @@
         <v>124</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -9068,7 +9071,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -9089,10 +9092,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9109,10 +9112,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9138,14 +9141,14 @@
         <v>65</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -9194,7 +9197,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9203,7 +9206,7 @@
         <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>63</v>
@@ -9215,10 +9218,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9235,10 +9238,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9264,16 +9267,16 @@
         <v>71</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9322,7 +9325,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9343,10 +9346,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9363,10 +9366,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9392,16 +9395,16 @@
         <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9429,10 +9432,10 @@
         <v>154</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9450,7 +9453,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9459,7 +9462,7 @@
         <v>51</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>63</v>
@@ -9474,7 +9477,7 @@
         <v>94</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9491,14 +9494,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9520,16 +9523,16 @@
         <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9557,10 +9560,10 @@
         <v>154</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9578,7 +9581,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9596,19 +9599,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9619,10 +9622,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9645,19 +9648,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9706,7 +9709,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9727,10 +9730,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9747,10 +9750,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9871,10 +9874,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9997,10 +10000,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10023,16 +10026,16 @@
         <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10082,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -10106,7 +10109,7 @@
         <v>94</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10123,10 +10126,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10152,10 +10155,10 @@
         <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10206,7 +10209,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -10230,7 +10233,7 @@
         <v>94</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10247,10 +10250,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10273,13 +10276,13 @@
         <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10330,7 +10333,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -10354,7 +10357,7 @@
         <v>94</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10363,18 +10366,18 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10400,13 +10403,13 @@
         <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10432,13 +10435,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -10456,7 +10459,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10474,19 +10477,19 @@
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>40</v>
@@ -10497,10 +10500,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10526,16 +10529,16 @@
         <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10560,13 +10563,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10584,7 +10587,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10605,10 +10608,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10625,10 +10628,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10651,16 +10654,16 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10710,7 +10713,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10728,19 +10731,19 @@
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>40</v>
@@ -10751,10 +10754,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10777,16 +10780,16 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10836,7 +10839,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10854,19 +10857,19 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>40</v>
@@ -10877,10 +10880,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10903,19 +10906,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10964,7 +10967,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10976,7 +10979,7 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
@@ -10985,10 +10988,10 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -11005,10 +11008,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11129,10 +11132,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11255,14 +11258,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11284,10 +11287,10 @@
         <v>97</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>100</v>
@@ -11342,7 +11345,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11383,10 +11386,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11409,13 +11412,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11466,7 +11469,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11475,7 +11478,7 @@
         <v>51</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>63</v>
@@ -11487,10 +11490,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11507,10 +11510,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11533,13 +11536,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11590,7 +11593,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11599,7 +11602,7 @@
         <v>51</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>63</v>
@@ -11611,10 +11614,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11631,10 +11634,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11660,16 +11663,16 @@
         <v>149</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11697,10 +11700,10 @@
         <v>75</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11718,7 +11721,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11736,13 +11739,13 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11759,10 +11762,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11788,16 +11791,16 @@
         <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
@@ -11822,13 +11825,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -11846,7 +11849,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11864,13 +11867,13 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11887,10 +11890,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11913,17 +11916,17 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11972,7 +11975,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11996,7 +11999,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -12013,10 +12016,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12042,10 +12045,10 @@
         <v>124</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12096,7 +12099,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -12117,10 +12120,10 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -12137,10 +12140,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12163,16 +12166,16 @@
         <v>52</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12222,7 +12225,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12243,10 +12246,10 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -12263,10 +12266,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12289,16 +12292,16 @@
         <v>52</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12348,7 +12351,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12369,10 +12372,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12389,10 +12392,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12415,19 +12418,19 @@
         <v>52</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12476,7 +12479,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12488,7 +12491,7 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -12497,10 +12500,10 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -12512,15 +12515,15 @@
         <v>40</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12641,10 +12644,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12767,14 +12770,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12796,10 +12799,10 @@
         <v>97</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>100</v>
@@ -12854,7 +12857,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12895,10 +12898,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12924,16 +12927,16 @@
         <v>149</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12982,7 +12985,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>51</v>
@@ -13000,7 +13003,7 @@
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>322</v>
@@ -13023,10 +13026,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13049,19 +13052,19 @@
         <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -13089,10 +13092,10 @@
         <v>154</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -13110,7 +13113,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -13119,7 +13122,7 @@
         <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>63</v>
@@ -13128,19 +13131,19 @@
         <v>40</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>40</v>
@@ -13151,10 +13154,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13180,16 +13183,16 @@
         <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13217,10 +13220,10 @@
         <v>154</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13238,7 +13241,7 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -13247,7 +13250,7 @@
         <v>51</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>63</v>
@@ -13262,7 +13265,7 @@
         <v>94</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -13279,14 +13282,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13308,16 +13311,16 @@
         <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13345,10 +13348,10 @@
         <v>154</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13366,7 +13369,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -13384,19 +13387,19 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13407,10 +13410,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13436,16 +13439,16 @@
         <v>40</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -13494,7 +13497,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -13515,10 +13518,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.vitalsPain</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.vitalsPain</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.vitals</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.vitals</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2505,19 +2509,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -2526,18 +2530,18 @@
         <v>40</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2548,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2557,19 +2561,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2619,13 +2623,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2660,10 +2664,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2674,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2683,16 +2687,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2743,19 +2747,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2784,10 +2788,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2798,28 +2802,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2869,19 +2873,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2910,10 +2914,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2924,7 +2928,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2936,16 +2940,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2971,13 +2975,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2995,19 +2999,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -3036,21 +3040,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -3062,16 +3066,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3121,19 +3125,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -3145,7 +3149,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -3162,14 +3166,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3188,16 +3192,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3247,7 +3251,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3271,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -3288,14 +3292,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3314,16 +3318,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3373,7 +3377,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3385,7 +3389,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3397,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -3414,14 +3418,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3434,25 +3438,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3501,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3513,7 +3517,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3525,7 +3529,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3542,10 +3546,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3553,7 +3557,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3565,20 +3569,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3615,17 +3619,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3637,49 +3641,49 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AR10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -3691,20 +3695,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3753,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3765,22 +3769,22 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>40</v>
@@ -3794,10 +3798,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3808,7 +3812,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3820,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3877,13 +3881,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3901,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3918,14 +3922,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3944,16 +3948,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3991,19 +3995,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -4015,7 +4019,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -4027,7 +4031,7 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -4044,10 +4048,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4055,34 +4059,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -4092,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -4107,13 +4111,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -4131,19 +4135,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -4152,10 +4156,10 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -4172,10 +4176,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4186,7 +4190,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -4195,22 +4199,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -4235,13 +4239,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -4259,19 +4263,19 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -4280,10 +4284,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -4300,10 +4304,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4314,7 +4318,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4323,22 +4327,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -4351,7 +4355,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -4387,19 +4391,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -4408,10 +4412,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -4428,10 +4432,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4442,7 +4446,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -4451,19 +4455,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4477,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4513,19 +4517,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4534,10 +4538,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4554,10 +4558,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4568,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4577,16 +4581,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4637,19 +4641,19 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4658,10 +4662,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4678,10 +4682,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4692,7 +4696,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4701,19 +4705,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4763,19 +4767,19 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4784,10 +4788,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4804,14 +4808,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4827,20 +4831,20 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4889,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4901,19 +4905,19 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4930,14 +4934,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4953,19 +4957,19 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5015,7 +5019,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -5027,19 +5031,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -5056,10 +5060,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5067,34 +5071,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -5104,7 +5108,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -5119,11 +5123,11 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -5141,51 +5145,51 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5193,13 +5197,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -5208,19 +5212,19 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -5245,29 +5249,29 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5279,7 +5283,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -5291,43 +5295,43 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -5336,19 +5340,19 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5373,13 +5377,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -5397,7 +5401,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5409,7 +5413,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -5421,10 +5425,10 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
@@ -5438,10 +5442,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5452,7 +5456,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -5464,13 +5468,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5521,13 +5525,13 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -5545,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -5562,14 +5566,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5588,16 +5592,16 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5635,19 +5639,19 @@
         <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5659,7 +5663,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -5671,7 +5675,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5688,10 +5692,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5699,34 +5703,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5775,7 +5779,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5787,7 +5791,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -5796,10 +5800,10 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5816,10 +5820,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5830,7 +5834,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -5842,13 +5846,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5899,13 +5903,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5923,7 +5927,7 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5940,14 +5944,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5966,16 +5970,16 @@
         <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -6013,19 +6017,19 @@
         <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -6037,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -6049,7 +6053,7 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -6066,10 +6070,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6077,41 +6081,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>40</v>
@@ -6153,19 +6157,19 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -6174,10 +6178,10 @@
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>40</v>
@@ -6194,10 +6198,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6208,7 +6212,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -6217,19 +6221,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6279,19 +6283,19 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -6300,10 +6304,10 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>40</v>
@@ -6320,10 +6324,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6331,39 +6335,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>40</v>
@@ -6405,19 +6409,19 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -6426,10 +6430,10 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>40</v>
@@ -6446,10 +6450,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6460,7 +6464,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -6469,20 +6473,20 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6531,19 +6535,19 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -6552,10 +6556,10 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>40</v>
@@ -6572,10 +6576,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6586,7 +6590,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -6595,22 +6599,22 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6659,19 +6663,19 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -6680,10 +6684,10 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
@@ -6700,10 +6704,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6714,7 +6718,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6723,22 +6727,22 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6787,19 +6791,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6808,10 +6812,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6828,45 +6832,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6891,13 +6895,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6915,51 +6919,51 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6970,7 +6974,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6982,13 +6986,13 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7039,13 +7043,13 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -7063,7 +7067,7 @@
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -7080,14 +7084,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7106,16 +7110,16 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7153,19 +7157,19 @@
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -7177,7 +7181,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -7189,7 +7193,7 @@
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -7206,10 +7210,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7223,28 +7227,28 @@
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -7293,7 +7297,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -7305,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -7314,10 +7318,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -7334,10 +7338,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7348,31 +7352,31 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -7421,19 +7425,19 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -7442,10 +7446,10 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -7462,10 +7466,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7473,34 +7477,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7549,51 +7553,51 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7613,19 +7617,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7675,7 +7679,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7687,7 +7691,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -7696,13 +7700,13 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7716,14 +7720,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7739,22 +7743,22 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7803,34 +7807,34 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7844,45 +7848,45 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7919,44 +7923,44 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7970,47 +7974,47 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -8059,51 +8063,51 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8123,19 +8127,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8185,19 +8189,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -8206,13 +8210,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -8226,10 +8230,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8243,26 +8247,26 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8311,7 +8315,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8323,39 +8327,39 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8366,31 +8370,31 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8415,13 +8419,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8439,51 +8443,51 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8494,7 +8498,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -8506,13 +8510,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8563,13 +8567,13 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -8587,7 +8591,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8604,14 +8608,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8630,16 +8634,16 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8677,19 +8681,19 @@
         <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8701,7 +8705,7 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -8713,7 +8717,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8730,10 +8734,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8744,7 +8748,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -8753,22 +8757,22 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8784,10 +8788,10 @@
         <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -8817,19 +8821,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8838,10 +8842,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8858,10 +8862,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8872,35 +8876,35 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -8921,13 +8925,13 @@
         <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -8945,19 +8949,19 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8966,10 +8970,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8986,10 +8990,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9000,7 +9004,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -9009,20 +9013,20 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -9071,19 +9075,19 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -9092,10 +9096,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9112,10 +9116,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9126,7 +9130,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -9135,20 +9139,20 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -9197,19 +9201,19 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -9218,10 +9222,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9238,10 +9242,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9252,7 +9256,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -9261,22 +9265,22 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9325,19 +9329,19 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -9346,10 +9350,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9366,10 +9370,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9383,7 +9387,7 @@
         <v>38</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>40</v>
@@ -9392,19 +9396,19 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9429,13 +9433,13 @@
         <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9453,19 +9457,19 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -9474,10 +9478,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9494,14 +9498,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9520,19 +9524,19 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9557,13 +9561,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9581,7 +9585,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9593,25 +9597,25 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9622,10 +9626,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9639,7 +9643,7 @@
         <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
@@ -9648,19 +9652,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9709,7 +9713,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9721,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -9730,10 +9734,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9750,10 +9754,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9764,7 +9768,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -9776,13 +9780,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9833,13 +9837,13 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -9857,7 +9861,7 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9874,14 +9878,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9900,16 +9904,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9947,19 +9951,19 @@
         <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9971,7 +9975,7 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -9983,7 +9987,7 @@
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
@@ -10000,10 +10004,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10014,7 +10018,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -10023,19 +10027,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10085,19 +10089,19 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -10106,10 +10110,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10126,10 +10130,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10140,7 +10144,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -10149,16 +10153,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10209,19 +10213,19 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -10230,10 +10234,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10250,10 +10254,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10261,10 +10265,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -10273,16 +10277,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10333,19 +10337,19 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -10354,10 +10358,10 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10366,18 +10370,18 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10400,16 +10404,16 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10435,13 +10439,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -10459,37 +10463,37 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>40</v>
@@ -10500,10 +10504,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10526,19 +10530,19 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10563,13 +10567,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10587,19 +10591,19 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -10608,10 +10612,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10628,10 +10632,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10654,16 +10658,16 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10713,37 +10717,37 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>40</v>
@@ -10754,10 +10758,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10780,16 +10784,16 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10839,37 +10843,37 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>40</v>
@@ -10880,10 +10884,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10906,19 +10910,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10967,7 +10971,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10979,7 +10983,7 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
@@ -10988,10 +10992,10 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -11008,10 +11012,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11022,7 +11026,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -11034,13 +11038,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11091,13 +11095,13 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
@@ -11115,7 +11119,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -11132,14 +11136,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -11158,16 +11162,16 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11217,7 +11221,7 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11229,7 +11233,7 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -11241,7 +11245,7 @@
         <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -11258,14 +11262,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11278,25 +11282,25 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -11345,7 +11349,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11357,7 +11361,7 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -11369,7 +11373,7 @@
         <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11386,10 +11390,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11400,7 +11404,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -11412,13 +11416,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11469,19 +11473,19 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -11490,10 +11494,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11510,10 +11514,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11524,7 +11528,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -11536,13 +11540,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11593,19 +11597,19 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -11614,10 +11618,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11634,10 +11638,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11648,7 +11652,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -11660,19 +11664,19 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11697,13 +11701,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11721,31 +11725,31 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11762,10 +11766,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11788,19 +11792,19 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
@@ -11825,13 +11829,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -11849,7 +11853,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11861,19 +11865,19 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11890,10 +11894,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11904,7 +11908,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -11916,17 +11920,17 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11975,19 +11979,19 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11999,7 +12003,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -12016,10 +12020,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12030,7 +12034,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -12042,13 +12046,13 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12099,19 +12103,19 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
@@ -12120,10 +12124,10 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -12140,10 +12144,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12163,19 +12167,19 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12225,7 +12229,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12237,7 +12241,7 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
@@ -12246,10 +12250,10 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -12266,10 +12270,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12289,19 +12293,19 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12351,7 +12355,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12363,7 +12367,7 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -12372,10 +12376,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12392,10 +12396,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12409,28 +12413,28 @@
         <v>38</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12479,7 +12483,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12491,7 +12495,7 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -12500,10 +12504,10 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -12515,15 +12519,15 @@
         <v>40</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12534,7 +12538,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -12546,13 +12550,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12603,13 +12607,13 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
@@ -12627,7 +12631,7 @@
         <v>40</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -12644,14 +12648,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12670,16 +12674,16 @@
         <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12729,7 +12733,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12741,7 +12745,7 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>40</v>
@@ -12753,7 +12757,7 @@
         <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12770,14 +12774,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12790,25 +12794,25 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -12857,7 +12861,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12869,7 +12873,7 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
@@ -12881,7 +12885,7 @@
         <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>40</v>
@@ -12898,10 +12902,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12909,34 +12913,34 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12961,13 +12965,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -12985,34 +12989,34 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>40</v>
@@ -13026,10 +13030,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13040,31 +13044,31 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -13089,13 +13093,13 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -13113,37 +13117,37 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>40</v>
@@ -13154,10 +13158,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13168,10 +13172,10 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>40</v>
@@ -13180,19 +13184,19 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13217,13 +13221,13 @@
         <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13241,19 +13245,19 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
@@ -13262,10 +13266,10 @@
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -13282,14 +13286,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13308,19 +13312,19 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13345,13 +13349,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13369,7 +13373,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -13381,25 +13385,25 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13410,10 +13414,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13439,16 +13443,16 @@
         <v>40</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -13497,7 +13501,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -13509,7 +13513,7 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>40</v>
@@ -13518,10 +13522,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>VitalSignTO.type.name</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -6955,7 +6958,7 @@
         <v>327</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -7333,7 +7336,7 @@
         <v>40</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7461,15 +7464,15 @@
         <v>40</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7492,19 +7495,19 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7553,7 +7556,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7568,36 +7571,36 @@
         <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7620,16 +7623,16 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7679,7 +7682,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7703,10 +7706,10 @@
         <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>40</v>
@@ -7720,14 +7723,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7746,19 +7749,19 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7807,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7822,19 +7825,19 @@
         <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>40</v>
@@ -7848,14 +7851,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7874,19 +7877,19 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -7923,17 +7926,17 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7942,25 +7945,25 @@
         <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>40</v>
@@ -7974,16 +7977,16 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -8002,19 +8005,19 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -8063,7 +8066,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -8072,42 +8075,42 @@
         <v>52</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8130,16 +8133,16 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8189,7 +8192,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -8210,13 +8213,13 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>40</v>
@@ -8230,10 +8233,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8256,17 +8259,17 @@
         <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -8315,7 +8318,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8330,36 +8333,36 @@
         <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8382,19 +8385,19 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -8422,10 +8425,10 @@
         <v>155</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8443,7 +8446,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8452,7 +8455,7 @@
         <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>64</v>
@@ -8461,33 +8464,33 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8608,10 +8611,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8734,10 +8737,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8760,19 +8763,19 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -8788,10 +8791,10 @@
         <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -8821,7 +8824,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8842,10 +8845,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8862,10 +8865,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8891,20 +8894,20 @@
         <v>72</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>40</v>
@@ -8928,10 +8931,10 @@
         <v>143</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -8949,7 +8952,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8970,10 +8973,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8990,10 +8993,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9019,14 +9022,14 @@
         <v>125</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -9075,7 +9078,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -9096,10 +9099,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9116,10 +9119,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9145,14 +9148,14 @@
         <v>66</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -9201,7 +9204,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9210,7 +9213,7 @@
         <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>64</v>
@@ -9222,10 +9225,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9242,10 +9245,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9271,16 +9274,16 @@
         <v>72</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -9329,7 +9332,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9350,10 +9353,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9370,10 +9373,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9399,16 +9402,16 @@
         <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -9436,10 +9439,10 @@
         <v>155</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9457,7 +9460,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9466,7 +9469,7 @@
         <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>64</v>
@@ -9481,7 +9484,7 @@
         <v>95</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9498,14 +9501,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9527,16 +9530,16 @@
         <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9564,10 +9567,10 @@
         <v>155</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9585,7 +9588,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9603,19 +9606,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9626,10 +9629,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9652,19 +9655,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9713,7 +9716,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9734,10 +9737,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9754,10 +9757,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9878,10 +9881,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10004,10 +10007,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10030,16 +10033,16 @@
         <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10089,7 +10092,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -10113,7 +10116,7 @@
         <v>95</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10130,10 +10133,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10156,13 +10159,13 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10213,7 +10216,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -10237,7 +10240,7 @@
         <v>95</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10254,10 +10257,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10280,13 +10283,13 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10337,7 +10340,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -10361,7 +10364,7 @@
         <v>95</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10370,18 +10373,18 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10407,13 +10410,13 @@
         <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10439,13 +10442,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -10463,7 +10466,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10481,19 +10484,19 @@
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>40</v>
@@ -10504,10 +10507,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10533,16 +10536,16 @@
         <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10567,13 +10570,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10591,7 +10594,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10612,10 +10615,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10632,10 +10635,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10658,16 +10661,16 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10717,7 +10720,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10735,19 +10738,19 @@
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>40</v>
@@ -10758,10 +10761,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10784,16 +10787,16 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10843,7 +10846,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10861,19 +10864,19 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>40</v>
@@ -10884,10 +10887,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10910,19 +10913,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10971,7 +10974,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10983,7 +10986,7 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
@@ -10992,10 +10995,10 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
@@ -11012,10 +11015,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11136,10 +11139,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11262,14 +11265,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11291,10 +11294,10 @@
         <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>101</v>
@@ -11349,7 +11352,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11390,10 +11393,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11416,13 +11419,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11473,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11482,7 +11485,7 @@
         <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>64</v>
@@ -11494,10 +11497,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11514,10 +11517,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11540,13 +11543,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11597,7 +11600,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11606,7 +11609,7 @@
         <v>52</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>64</v>
@@ -11618,10 +11621,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11638,10 +11641,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11667,16 +11670,16 @@
         <v>150</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11704,10 +11707,10 @@
         <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11725,7 +11728,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11743,13 +11746,13 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11766,10 +11769,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11795,16 +11798,16 @@
         <v>150</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
@@ -11829,13 +11832,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -11853,7 +11856,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11871,13 +11874,13 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11894,10 +11897,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11920,17 +11923,17 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11979,7 +11982,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -12003,7 +12006,7 @@
         <v>40</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -12020,10 +12023,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12049,10 +12052,10 @@
         <v>125</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -12103,7 +12106,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -12124,10 +12127,10 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -12144,10 +12147,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12170,16 +12173,16 @@
         <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12229,7 +12232,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12250,10 +12253,10 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -12270,10 +12273,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12296,16 +12299,16 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -12355,7 +12358,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12376,10 +12379,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12396,10 +12399,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12422,19 +12425,19 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -12483,7 +12486,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -12495,7 +12498,7 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -12504,10 +12507,10 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -12519,15 +12522,15 @@
         <v>40</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12648,10 +12651,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12774,14 +12777,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12803,10 +12806,10 @@
         <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>101</v>
@@ -12861,7 +12864,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12902,10 +12905,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12931,16 +12934,16 @@
         <v>150</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12989,7 +12992,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>52</v>
@@ -13007,7 +13010,7 @@
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>323</v>
@@ -13030,10 +13033,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13056,19 +13059,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -13096,10 +13099,10 @@
         <v>155</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -13117,7 +13120,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -13126,7 +13129,7 @@
         <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>64</v>
@@ -13135,19 +13138,19 @@
         <v>40</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>40</v>
@@ -13158,10 +13161,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13187,16 +13190,16 @@
         <v>150</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13224,10 +13227,10 @@
         <v>155</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13245,7 +13248,7 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -13254,7 +13257,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -13269,7 +13272,7 @@
         <v>95</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -13286,14 +13289,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13315,16 +13318,16 @@
         <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13352,10 +13355,10 @@
         <v>155</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13373,7 +13376,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -13391,19 +13394,19 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13414,10 +13417,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13443,16 +13446,16 @@
         <v>40</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -13501,7 +13504,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -13522,10 +13525,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="698">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,7 +559,7 @@
     <t>Observation.identifier.value</t>
   </si>
   <si>
-    <t>`VitalSignTO` | `.` | {VitalSignTO.id}</t>
+    <t>`VitalSignTO` | `.` | {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1031,16 +1031,16 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
     <t>VitalSignTO.type.name convert to LOINC using ObservationTypeTOVsLoincCode</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1224,7 +1224,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1252,7 +1252,178 @@
     <t>VitalSignTO.recorder and VitalSignTO.observer</t>
   </si>
   <si>
-    <t>contained VitalSignTO.recorder and VitalSignTO.observer</t>
+    <t>contained VitalSignTO.observer</t>
+  </si>
+  <si>
+    <t>Observation.performer.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Alternative reference (target type is wrong)</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
+  </si>
+  <si>
+    <t>Organization(VitalSignTO.location)</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension:site.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1952,7 +2123,7 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>For BP is used for value1</t>
+    <t>Used for BP</t>
   </si>
   <si>
     <t>Observation.component.id</t>
@@ -2360,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR88"/>
+  <dimension ref="A1:AR99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6955,7 +7126,7 @@
         <v>326</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>40</v>
@@ -6963,10 +7134,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7087,10 +7258,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7213,10 +7384,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7333,10 +7504,10 @@
         <v>40</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7461,7 +7632,7 @@
         <v>40</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>332</v>
@@ -8376,29 +8547,25 @@
         <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -8422,13 +8589,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -8446,7 +8613,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>128</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -8455,53 +8622,53 @@
         <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>409</v>
+        <v>129</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -8513,15 +8680,17 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8558,31 +8727,31 @@
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8611,21 +8780,23 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D50" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8637,16 +8808,16 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>101</v>
+        <v>405</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8684,16 +8855,16 @@
         <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>135</v>
@@ -8720,7 +8891,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8729,7 +8900,7 @@
         <v>40</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>40</v>
@@ -8737,10 +8908,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8760,23 +8931,19 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>415</v>
+        <v>54</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -8791,10 +8958,10 @@
         <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>421</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -8824,7 +8991,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>422</v>
+        <v>128</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8833,10 +9000,10 @@
         <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>409</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8845,10 +9012,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>424</v>
+        <v>129</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8865,10 +9032,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8879,36 +9046,32 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q52" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>40</v>
       </c>
@@ -8928,43 +9091,43 @@
         <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>431</v>
+        <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8973,10 +9136,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8993,10 +9156,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9004,7 +9167,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>52</v>
@@ -9016,27 +9179,27 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>40</v>
@@ -9078,10 +9241,10 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>52</v>
@@ -9090,7 +9253,7 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -9099,10 +9262,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -9119,10 +9282,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9130,7 +9293,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>52</v>
@@ -9142,21 +9305,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>66</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>40</v>
       </c>
@@ -9204,7 +9365,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9213,7 +9374,7 @@
         <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>64</v>
@@ -9225,10 +9386,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>448</v>
+        <v>95</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -9245,10 +9406,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9271,20 +9432,18 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
       </c>
@@ -9332,7 +9491,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9341,7 +9500,7 @@
         <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>64</v>
@@ -9353,10 +9512,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>455</v>
+        <v>95</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -9373,10 +9532,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9387,32 +9546,30 @@
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="I56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
       </c>
@@ -9439,10 +9596,10 @@
         <v>155</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>40</v>
@@ -9460,7 +9617,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9469,7 +9626,7 @@
         <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>64</v>
@@ -9481,10 +9638,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -9501,21 +9658,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -9524,23 +9681,21 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>40</v>
       </c>
@@ -9564,13 +9719,13 @@
         <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>472</v>
+        <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>40</v>
@@ -9588,13 +9743,13 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>40</v>
@@ -9606,19 +9761,19 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>40</v>
@@ -9629,10 +9784,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9643,32 +9798,30 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="I58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>478</v>
+        <v>125</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
       </c>
@@ -9716,13 +9869,13 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
@@ -9737,10 +9890,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>484</v>
+        <v>95</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9757,10 +9910,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9774,25 +9927,29 @@
         <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>125</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>126</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
       </c>
@@ -9816,13 +9973,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -9840,7 +9997,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>452</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9849,53 +10006,53 @@
         <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>460</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>462</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>129</v>
+        <v>463</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>40</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -9907,17 +10064,15 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -9954,31 +10109,31 @@
         <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -10007,21 +10162,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -10030,19 +10185,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>99</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
+        <v>132</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10080,31 +10235,31 @@
         <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>492</v>
+        <v>135</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -10113,10 +10268,10 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>493</v>
+        <v>129</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -10133,10 +10288,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10159,16 +10314,20 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
       </c>
@@ -10183,10 +10342,10 @@
         <v>40</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>40</v>
@@ -10216,7 +10375,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -10237,10 +10396,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -10257,10 +10416,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10268,7 +10427,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>52</v>
@@ -10277,26 +10436,30 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
       </c>
@@ -10316,13 +10479,13 @@
         <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>40</v>
@@ -10340,10 +10503,10 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>52</v>
@@ -10361,10 +10524,10 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>95</v>
+        <v>487</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -10373,18 +10536,18 @@
         <v>40</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>505</v>
+        <v>40</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>505</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10395,7 +10558,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -10404,21 +10567,21 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>40</v>
       </c>
@@ -10442,13 +10605,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>511</v>
+        <v>40</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>512</v>
+        <v>40</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -10466,7 +10629,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10484,19 +10647,19 @@
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>513</v>
+        <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>516</v>
+        <v>40</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>40</v>
@@ -10507,10 +10670,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10521,7 +10684,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -10530,22 +10693,20 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -10570,13 +10731,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>522</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>523</v>
+        <v>40</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10594,7 +10755,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10603,7 +10764,7 @@
         <v>52</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>501</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>64</v>
@@ -10615,10 +10776,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10635,10 +10796,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10649,7 +10810,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -10658,21 +10819,23 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>527</v>
+        <v>72</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>40</v>
       </c>
@@ -10720,7 +10883,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10738,19 +10901,19 @@
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>40</v>
@@ -10761,10 +10924,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10778,7 +10941,7 @@
         <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>40</v>
@@ -10787,18 +10950,20 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>536</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -10822,13 +10987,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>40</v>
+        <v>515</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10846,7 +11011,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10855,7 +11020,7 @@
         <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>517</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>64</v>
@@ -10864,19 +11029,19 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>540</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>541</v>
+        <v>95</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>543</v>
+        <v>40</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>40</v>
@@ -10887,14 +11052,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10913,19 +11078,19 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>545</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10950,13 +11115,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>525</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>40</v>
+        <v>526</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10974,7 +11139,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10986,25 +11151,25 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>550</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>527</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>40</v>
+        <v>530</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>40</v>
@@ -11015,10 +11180,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11029,10 +11194,10 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>40</v>
@@ -11041,16 +11206,20 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>126</v>
+        <v>533</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>40</v>
       </c>
@@ -11098,19 +11267,19 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>128</v>
+        <v>531</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>40</v>
@@ -11119,10 +11288,10 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>129</v>
+        <v>538</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -11139,21 +11308,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -11165,17 +11334,15 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -11224,19 +11391,19 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -11265,14 +11432,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>556</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11285,26 +11452,24 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>99</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="O71" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
       </c>
@@ -11340,19 +11505,19 @@
         <v>40</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>559</v>
+        <v>135</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11376,7 +11541,7 @@
         <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -11393,10 +11558,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11416,18 +11581,20 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>40</v>
@@ -11476,7 +11643,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11485,7 +11652,7 @@
         <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>64</v>
@@ -11497,10 +11664,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>565</v>
+        <v>95</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -11517,10 +11684,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11540,16 +11707,16 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>561</v>
+        <v>363</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11600,7 +11767,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11609,7 +11776,7 @@
         <v>52</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>64</v>
@@ -11621,10 +11788,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>565</v>
+        <v>95</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11641,10 +11808,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11652,7 +11819,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>52</v>
@@ -11664,23 +11831,19 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>150</v>
+        <v>554</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
@@ -11704,13 +11867,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>577</v>
+        <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -11728,10 +11891,10 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>52</v>
@@ -11746,13 +11909,13 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>578</v>
+        <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>579</v>
+        <v>95</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>475</v>
+        <v>558</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11761,18 +11924,18 @@
         <v>40</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="AR74" t="s" s="2">
-        <v>40</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11783,7 +11946,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -11798,17 +11961,15 @@
         <v>150</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -11832,13 +11993,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -11856,13 +12017,13 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
@@ -11874,19 +12035,19 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>40</v>
+        <v>570</v>
       </c>
       <c r="AQ75" t="s" s="2">
         <v>40</v>
@@ -11897,10 +12058,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11911,7 +12072,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -11923,17 +12084,19 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>588</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11958,13 +12121,13 @@
         <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>40</v>
+        <v>564</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>40</v>
+        <v>576</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>40</v>
+        <v>577</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>40</v>
@@ -11982,7 +12145,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -12003,10 +12166,10 @@
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>40</v>
+        <v>578</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -12023,10 +12186,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12037,7 +12200,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -12049,15 +12212,17 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>125</v>
+        <v>581</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -12106,7 +12271,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -12124,19 +12289,19 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>40</v>
+        <v>585</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>40</v>
@@ -12147,10 +12312,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12170,19 +12335,19 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12232,13 +12397,13 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
@@ -12250,19 +12415,19 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>40</v>
+        <v>594</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>40</v>
+        <v>597</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>40</v>
@@ -12273,10 +12438,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12296,21 +12461,23 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
       </c>
@@ -12358,7 +12525,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -12370,7 +12537,7 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>64</v>
+        <v>604</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -12379,10 +12546,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -12399,10 +12566,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12413,32 +12580,28 @@
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>545</v>
+        <v>125</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>611</v>
+        <v>126</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>40</v>
       </c>
@@ -12486,19 +12649,19 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>610</v>
+        <v>128</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>615</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>40</v>
@@ -12507,10 +12670,10 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>616</v>
+        <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>617</v>
+        <v>129</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -12522,26 +12685,26 @@
         <v>40</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>618</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -12553,15 +12716,17 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -12610,19 +12775,19 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>40</v>
@@ -12651,14 +12816,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>97</v>
+        <v>610</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12671,24 +12836,26 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>99</v>
+        <v>611</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>132</v>
+        <v>612</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
       </c>
@@ -12736,7 +12903,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>135</v>
+        <v>613</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12760,7 +12927,7 @@
         <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12777,46 +12944,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>556</v>
+        <v>40</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>98</v>
+        <v>615</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>40</v>
       </c>
@@ -12864,19 +13027,19 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>559</v>
+        <v>614</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>618</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
@@ -12885,10 +13048,10 @@
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>95</v>
+        <v>620</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>40</v>
@@ -12905,10 +13068,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12916,35 +13079,31 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>150</v>
+        <v>615</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>626</v>
-      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -12968,13 +13127,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -12992,16 +13151,16 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>40</v>
+        <v>618</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>64</v>
@@ -13010,16 +13169,16 @@
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>627</v>
+        <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>323</v>
+        <v>619</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>324</v>
+        <v>624</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>40</v>
@@ -13033,10 +13192,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13050,28 +13209,28 @@
         <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
@@ -13096,13 +13255,13 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>404</v>
+        <v>630</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>405</v>
+        <v>631</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -13120,7 +13279,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -13129,7 +13288,7 @@
         <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>633</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>64</v>
@@ -13138,19 +13297,19 @@
         <v>40</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>408</v>
+        <v>633</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>40</v>
@@ -13161,10 +13320,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13175,10 +13334,10 @@
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>40</v>
@@ -13190,16 +13349,16 @@
         <v>150</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
@@ -13224,13 +13383,13 @@
         <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>155</v>
+        <v>564</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>461</v>
+        <v>639</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>462</v>
+        <v>640</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>40</v>
@@ -13248,16 +13407,16 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>639</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -13266,13 +13425,13 @@
         <v>40</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>40</v>
+        <v>632</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>95</v>
+        <v>633</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -13289,21 +13448,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>466</v>
+        <v>40</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -13315,19 +13474,17 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>150</v>
+        <v>642</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>467</v>
+        <v>643</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>470</v>
+        <v>645</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -13352,13 +13509,13 @@
         <v>40</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>472</v>
+        <v>40</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>40</v>
@@ -13376,13 +13533,13 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>40</v>
@@ -13394,19 +13551,19 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>473</v>
+        <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>475</v>
+        <v>646</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>40</v>
@@ -13417,10 +13574,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13431,7 +13588,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -13443,20 +13600,16 @@
         <v>40</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>40</v>
       </c>
@@ -13504,13 +13657,13 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>40</v>
@@ -13525,10 +13678,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -13540,11 +13693,1409 @@
         <v>40</v>
       </c>
       <c r="AR88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR91" t="s" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR95" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AQ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AQ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AR99" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR88">
+  <autoFilter ref="A1:AR99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13554,7 +15105,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1280,7 +1280,7 @@
     <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
   </si>
   <si>
-    <t>Organization(VitalSignTO.location)</t>
+    <t>Location(VitalSignTO.location)</t>
   </si>
   <si>
     <t>Observation.performer.extension:site.id</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="747">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,33 +450,60 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:position</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-bodyPosition}
+</t>
+  </si>
+  <si>
+    <t>The body position during the observation</t>
+  </si>
+  <si>
+    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>VF_VitalsPosition(Qualifier)</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,6 +511,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -510,9 +540,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -562,11 +589,10 @@
     <t>Observation.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1169,7 +1195,65 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>VitalSignTO.type.name convert to LOINC using ObservationTypeTOVsLoincCode</t>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
+    <t>LOINC 72514-3</t>
+  </si>
+  <si>
+    <t>VitalSignTO.type.name convert to LOINC using VF_VitalsCodes</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>72514-3</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:pain.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1418,20 +1502,10 @@
     <t>Observation.performer.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.performer.extension:site.extension</t>
   </si>
   <si>
     <t>Observation.performer.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Observation.performer.extension:site.url</t>
@@ -1832,71 +1906,6 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
-    <t>Observation.note.id</t>
-  </si>
-  <si>
-    <t>Observation.note.extension</t>
-  </si>
-  <si>
-    <t>Observation.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Observation.note.time</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Observation.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
-    <t>VitalSignTO.comments</t>
-  </si>
-  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1931,6 +1940,9 @@
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
+    <t>VF_VitalsSite(Qualifier)</t>
+  </si>
+  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1956,6 +1968,9 @@
   </si>
   <si>
     <t>methodCode</t>
+  </si>
+  <si>
+    <t>VF_VitalsMethod(Qualifier)</t>
   </si>
   <si>
     <t>Observation.specimen</t>
@@ -2012,6 +2027,9 @@
   </si>
   <si>
     <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>VF_VitalsDevice(Qualifier)</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
@@ -2252,9 +2270,6 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>Used for BP</t>
-  </si>
-  <si>
     <t>Observation.component.id</t>
   </si>
   <si>
@@ -2281,6 +2296,9 @@
   <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>all non matched Qualifier</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
@@ -2660,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR100"/>
+  <dimension ref="A1:AR104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2710,8 +2728,8 @@
     <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="72.09765625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="72.09765625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="56.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3737,7 +3755,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3756,17 +3774,15 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>83</v>
@@ -3803,16 +3819,14 @@
         <v>83</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>145</v>
@@ -3839,7 +3853,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3859,43 +3873,41 @@
         <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>83</v>
       </c>
@@ -3943,7 +3955,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3952,7 +3964,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3967,7 +3979,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3976,7 +3988,7 @@
         <v>83</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AR10" t="s" s="2">
         <v>83</v>
@@ -3984,18 +3996,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>82</v>
@@ -4004,23 +4016,25 @@
         <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -4057,17 +4071,19 @@
         <v>83</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -4079,43 +4095,41 @@
         <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="AR11" t="s" s="2">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>83</v>
       </c>
@@ -4136,17 +4150,17 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -4183,19 +4197,17 @@
         <v>83</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -4210,47 +4222,49 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>83</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>83</v>
@@ -4259,19 +4273,21 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>83</v>
       </c>
@@ -4319,34 +4335,34 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
@@ -4360,21 +4376,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>83</v>
@@ -4386,17 +4402,15 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -4433,31 +4447,31 @@
         <v>83</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>83</v>
@@ -4469,7 +4483,7 @@
         <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>83</v>
@@ -4486,46 +4500,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>83</v>
       </c>
@@ -4534,58 +4546,58 @@
         <v>83</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -4594,10 +4606,10 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>83</v>
@@ -4614,10 +4626,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4625,7 +4637,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>95</v>
@@ -4634,25 +4646,25 @@
         <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -4662,7 +4674,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -4677,13 +4689,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -4701,7 +4713,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4722,10 +4734,10 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4742,10 +4754,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4768,19 +4780,19 @@
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4793,43 +4805,43 @@
         <v>83</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4841,7 +4853,7 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
@@ -4850,10 +4862,10 @@
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4870,10 +4882,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4896,18 +4908,20 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
       </c>
@@ -4919,7 +4933,7 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>83</v>
@@ -4955,7 +4969,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4967,7 +4981,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4976,10 +4990,10 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4996,10 +5010,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -5022,15 +5036,17 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -5043,7 +5059,7 @@
         <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>83</v>
@@ -5154,9 +5170,7 @@
       <c r="M20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -5205,7 +5219,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -5226,10 +5240,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -5246,21 +5260,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -5272,18 +5286,18 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -5331,13 +5345,13 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
@@ -5346,16 +5360,16 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -5372,14 +5386,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5398,18 +5412,18 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5472,16 +5486,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5498,46 +5512,44 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>262</v>
       </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -5546,7 +5558,7 @@
         <v>83</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>83</v>
@@ -5561,11 +5573,13 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -5583,13 +5597,13 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>83</v>
@@ -5598,36 +5612,36 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5638,31 +5652,31 @@
         <v>95</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5672,7 +5686,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -5687,35 +5701,35 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
@@ -5724,40 +5738,38 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>83</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>95</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>96</v>
@@ -5778,19 +5790,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5818,28 +5830,26 @@
         <v>119</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5863,41 +5873,43 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>83</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
@@ -5906,16 +5918,20 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5939,13 +5955,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5963,19 +5979,19 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
@@ -5987,10 +6003,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -6004,21 +6020,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -6030,17 +6046,15 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -6077,31 +6091,31 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -6113,7 +6127,7 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -6130,46 +6144,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -6205,19 +6217,19 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -6229,7 +6241,7 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
@@ -6238,10 +6250,10 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -6258,10 +6270,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6269,31 +6281,35 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -6341,19 +6357,19 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
@@ -6362,10 +6378,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -6382,21 +6398,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -6408,17 +6424,15 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -6455,31 +6469,31 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -6491,7 +6505,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -6508,52 +6522,50 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>83</v>
@@ -6583,31 +6595,31 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -6616,10 +6628,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6636,10 +6648,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6647,13 +6659,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>83</v>
@@ -6662,24 +6674,26 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>83</v>
@@ -6773,13 +6787,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>83</v>
@@ -6788,7 +6802,7 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>322</v>
@@ -6796,58 +6810,58 @@
       <c r="M33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6868,10 +6882,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6888,10 +6902,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6899,13 +6913,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
@@ -6914,24 +6928,24 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -7040,19 +7054,17 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -7101,7 +7113,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -7122,10 +7134,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -7142,10 +7154,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7168,19 +7180,19 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -7229,7 +7241,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -7250,10 +7262,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -7270,24 +7282,24 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
@@ -7296,19 +7308,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -7333,13 +7345,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -7357,10 +7369,10 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>95</v>
@@ -7372,22 +7384,22 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -7398,42 +7410,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -7457,13 +7473,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -7481,10 +7497,10 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>95</v>
@@ -7493,25 +7509,25 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>83</v>
@@ -7522,21 +7538,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -7548,17 +7564,15 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7595,31 +7609,31 @@
         <v>83</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -7631,7 +7645,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7648,14 +7662,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7665,29 +7679,27 @@
         <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -7723,19 +7735,19 @@
         <v>83</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7747,7 +7759,7 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -7756,10 +7768,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7768,18 +7780,18 @@
         <v>83</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7787,10 +7799,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>96</v>
@@ -7802,19 +7814,19 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7851,25 +7863,23 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
@@ -7884,10 +7894,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7896,20 +7906,22 @@
         <v>83</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7930,19 +7942,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7991,13 +8003,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -8006,33 +8018,33 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR42" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AR42" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>387</v>
@@ -8046,7 +8058,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -8055,20 +8067,18 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -8117,19 +8127,19 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>179</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -8138,13 +8148,13 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>180</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -8158,21 +8168,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>394</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -8181,23 +8191,21 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>183</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -8233,46 +8241,46 @@
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>186</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -8286,24 +8294,24 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>83</v>
@@ -8312,19 +8320,19 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>406</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -8361,17 +8369,19 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -8380,25 +8390,25 @@
         <v>95</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>414</v>
+        <v>107</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>416</v>
+        <v>318</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -8412,26 +8422,24 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>83</v>
@@ -8440,20 +8448,18 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -8501,7 +8507,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -8510,42 +8516,42 @@
         <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>414</v>
+        <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>421</v>
+        <v>83</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>421</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8553,10 +8559,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -8568,18 +8574,18 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>423</v>
+        <v>115</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -8588,7 +8594,7 @@
         <v>83</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>83</v>
@@ -8627,7 +8633,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8648,13 +8654,13 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -8668,10 +8674,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8682,10 +8688,10 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
@@ -8694,17 +8700,17 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>431</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8753,13 +8759,13 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
@@ -8768,36 +8774,36 @@
         <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>436</v>
+        <v>343</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8817,19 +8823,23 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8889,7 +8899,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -8898,10 +8908,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8918,44 +8928,46 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8991,31 +9003,31 @@
         <v>83</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -9024,10 +9036,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -9036,54 +9048,54 @@
         <v>83</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -9131,51 +9143,51 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9186,7 +9198,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -9195,18 +9207,20 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>416</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -9255,19 +9269,19 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -9276,13 +9290,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>172</v>
+        <v>419</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -9296,14 +9310,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -9319,19 +9333,23 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -9367,46 +9385,46 @@
         <v>83</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -9420,14 +9438,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -9437,33 +9455,35 @@
         <v>95</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>83</v>
@@ -9493,46 +9513,44 @@
         <v>83</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>138</v>
+        <v>444</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -9546,14 +9564,16 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9563,25 +9583,29 @@
         <v>95</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -9629,7 +9653,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9638,42 +9662,42 @@
         <v>95</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>107</v>
+        <v>441</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>138</v>
+        <v>444</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AR55" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9684,7 +9708,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -9696,16 +9720,16 @@
         <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9755,7 +9779,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9764,7 +9788,7 @@
         <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>107</v>
@@ -9776,13 +9800,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9796,10 +9820,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9810,10 +9834,10 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>83</v>
@@ -9822,18 +9846,18 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9857,13 +9881,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>482</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9881,13 +9905,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -9896,36 +9920,36 @@
         <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9945,20 +9969,18 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -10007,7 +10029,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>488</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -10019,7 +10041,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -10031,7 +10053,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>489</v>
+        <v>180</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -10048,21 +10070,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -10071,19 +10093,19 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>491</v>
+        <v>183</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>492</v>
+        <v>184</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>493</v>
+        <v>158</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10121,31 +10143,31 @@
         <v>83</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>494</v>
+        <v>186</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -10157,7 +10179,7 @@
         <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -10174,12 +10196,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>83</v>
       </c>
@@ -10191,29 +10215,27 @@
         <v>95</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -10237,13 +10259,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -10261,51 +10283,51 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>503</v>
+        <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>508</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10328,13 +10350,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10385,7 +10407,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -10394,7 +10416,7 @@
         <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>83</v>
@@ -10409,7 +10431,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -10426,21 +10448,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -10452,17 +10474,15 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -10499,19 +10519,19 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10535,7 +10555,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -10552,10 +10572,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10563,7 +10583,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>95</v>
@@ -10575,29 +10595,27 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>512</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>83</v>
@@ -10606,10 +10624,10 @@
         <v>83</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>517</v>
+        <v>83</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>518</v>
+        <v>83</v>
       </c>
       <c r="W63" t="s" s="2">
         <v>83</v>
@@ -10639,10 +10657,10 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>95</v>
@@ -10651,7 +10669,7 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -10660,10 +10678,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>521</v>
+        <v>138</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10680,10 +10698,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10691,7 +10709,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>95</v>
@@ -10700,30 +10718,26 @@
         <v>83</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q64" t="s" s="2">
-        <v>526</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
         <v>83</v>
       </c>
@@ -10743,13 +10757,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>527</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>528</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10767,7 +10781,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10776,7 +10790,7 @@
         <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>107</v>
@@ -10788,10 +10802,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>530</v>
+        <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>531</v>
+        <v>138</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10808,10 +10822,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10834,18 +10848,18 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10893,7 +10907,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10902,7 +10916,7 @@
         <v>95</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>107</v>
@@ -10914,10 +10928,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>538</v>
+        <v>138</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10934,10 +10948,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10963,15 +10977,15 @@
         <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10995,13 +11009,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -11019,7 +11033,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -11028,7 +11042,7 @@
         <v>95</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>107</v>
@@ -11040,10 +11054,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>545</v>
+        <v>138</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -11060,10 +11074,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11086,20 +11100,18 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
@@ -11147,7 +11159,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -11168,10 +11180,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -11188,10 +11200,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11202,32 +11214,30 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K68" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -11251,13 +11261,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -11275,7 +11285,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -11284,7 +11294,7 @@
         <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>107</v>
@@ -11296,10 +11306,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -11316,45 +11326,45 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>563</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>193</v>
+        <v>520</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -11379,13 +11389,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -11403,16 +11413,16 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>83</v>
+        <v>527</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>107</v>
@@ -11421,33 +11431,33 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="AQ69" t="s" s="2">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>83</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11458,7 +11468,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -11470,20 +11480,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>575</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>576</v>
+        <v>177</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -11531,19 +11537,19 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>574</v>
+        <v>179</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -11552,10 +11558,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>580</v>
+        <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>581</v>
+        <v>180</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11572,21 +11578,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -11598,15 +11604,17 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -11643,31 +11651,31 @@
         <v>83</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -11679,7 +11687,7 @@
         <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11696,21 +11704,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -11719,21 +11727,23 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>141</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>142</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>175</v>
+        <v>538</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11748,10 +11758,10 @@
         <v>83</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>83</v>
+        <v>541</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>83</v>
+        <v>542</v>
       </c>
       <c r="W72" t="s" s="2">
         <v>83</v>
@@ -11769,31 +11779,31 @@
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>178</v>
+        <v>543</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -11802,10 +11812,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>83</v>
+        <v>544</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>172</v>
+        <v>545</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11822,10 +11832,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11842,28 +11852,30 @@
         <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>585</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="Q73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="R73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11883,13 +11895,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>83</v>
+        <v>551</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>83</v>
+        <v>552</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11907,7 +11919,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11928,10 +11940,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11948,10 +11960,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11974,16 +11986,18 @@
         <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -12031,7 +12045,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -12052,10 +12066,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -12072,10 +12086,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12083,7 +12097,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>95</v>
@@ -12098,16 +12112,18 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -12155,16 +12171,16 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>83</v>
+        <v>568</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>107</v>
@@ -12176,10 +12192,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -12188,7 +12204,7 @@
         <v>83</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>602</v>
+        <v>83</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>83</v>
@@ -12196,10 +12212,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12210,7 +12226,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -12219,21 +12235,23 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -12257,13 +12275,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>608</v>
+        <v>83</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>609</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -12281,7 +12299,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -12299,19 +12317,19 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>610</v>
+        <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>83</v>
@@ -12322,10 +12340,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12339,7 +12357,7 @@
         <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>83</v>
@@ -12348,19 +12366,19 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -12385,13 +12403,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>607</v>
+        <v>206</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -12409,7 +12427,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -12418,7 +12436,7 @@
         <v>95</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>107</v>
@@ -12430,10 +12448,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>621</v>
+        <v>138</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -12450,14 +12468,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -12476,18 +12494,20 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>624</v>
+        <v>201</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -12511,13 +12531,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>83</v>
+        <v>593</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -12535,13 +12555,13 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>83</v>
@@ -12553,19 +12573,19 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>83</v>
@@ -12576,10 +12596,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12602,18 +12622,20 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -12661,13 +12683,13 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>83</v>
@@ -12679,19 +12701,19 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>637</v>
+        <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>640</v>
+        <v>83</v>
       </c>
       <c r="AQ79" t="s" s="2">
         <v>83</v>
@@ -12702,10 +12724,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12716,10 +12738,10 @@
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>83</v>
@@ -12728,20 +12750,18 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>642</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -12765,13 +12785,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>83</v>
+        <v>610</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>83</v>
+        <v>611</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12789,51 +12809,51 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>83</v>
+        <v>613</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>83</v>
+        <v>616</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>83</v>
+        <v>617</v>
       </c>
       <c r="AR80" t="s" s="2">
-        <v>83</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12847,7 +12867,7 @@
         <v>95</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>83</v>
@@ -12856,16 +12876,20 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>169</v>
+        <v>619</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12889,13 +12913,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>83</v>
+        <v>610</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>83</v>
+        <v>623</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>83</v>
+        <v>624</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12913,7 +12937,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>171</v>
+        <v>618</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12925,7 +12949,7 @@
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
@@ -12934,10 +12958,10 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>83</v>
+        <v>625</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>172</v>
+        <v>626</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12946,29 +12970,29 @@
         <v>83</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>83</v>
+        <v>627</v>
       </c>
       <c r="AR81" t="s" s="2">
-        <v>83</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
@@ -12980,16 +13004,16 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>141</v>
+        <v>629</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>142</v>
+        <v>630</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>175</v>
+        <v>631</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>144</v>
+        <v>632</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -13039,37 +13063,37 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>178</v>
+        <v>628</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>83</v>
+        <v>633</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>83</v>
+        <v>634</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>172</v>
+        <v>635</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>83</v>
+        <v>636</v>
       </c>
       <c r="AQ82" t="s" s="2">
         <v>83</v>
@@ -13080,46 +13104,44 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>653</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>141</v>
+        <v>638</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -13167,51 +13189,51 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>138</v>
+        <v>644</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>83</v>
+        <v>645</v>
       </c>
       <c r="AQ83" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AR83" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13222,7 +13244,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>83</v>
@@ -13234,16 +13256,20 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -13291,19 +13317,19 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>661</v>
+        <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>107</v>
+        <v>653</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>83</v>
@@ -13312,10 +13338,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -13332,10 +13358,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13358,13 +13384,13 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>658</v>
+        <v>176</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>665</v>
+        <v>177</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>666</v>
+        <v>178</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -13415,7 +13441,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>664</v>
+        <v>179</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -13424,10 +13450,10 @@
         <v>95</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>661</v>
+        <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
@@ -13436,10 +13462,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>662</v>
+        <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>667</v>
+        <v>180</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -13456,21 +13482,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>83</v>
@@ -13482,20 +13508,18 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>669</v>
+        <v>183</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>670</v>
+        <v>184</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>83</v>
       </c>
@@ -13519,13 +13543,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>673</v>
+        <v>83</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>674</v>
+        <v>83</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -13543,31 +13567,31 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>668</v>
+        <v>186</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>675</v>
+        <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>676</v>
+        <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>572</v>
+        <v>180</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -13584,14 +13608,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>83</v>
+        <v>659</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -13604,25 +13628,25 @@
         <v>83</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>680</v>
+        <v>158</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>681</v>
+        <v>159</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -13647,13 +13671,13 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>682</v>
+        <v>83</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>683</v>
+        <v>83</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>83</v>
@@ -13671,7 +13695,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -13683,19 +13707,19 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>675</v>
+        <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>676</v>
+        <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>572</v>
+        <v>138</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -13712,10 +13736,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13738,18 +13762,16 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>688</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -13797,7 +13819,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13806,7 +13828,7 @@
         <v>95</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>83</v>
+        <v>667</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>107</v>
@@ -13818,10 +13840,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>83</v>
+        <v>668</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13838,10 +13860,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13864,13 +13886,13 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>168</v>
+        <v>664</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13921,7 +13943,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13930,7 +13952,7 @@
         <v>95</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>83</v>
+        <v>667</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>107</v>
@@ -13942,10 +13964,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13962,10 +13984,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13976,7 +13998,7 @@
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>83</v>
@@ -13985,21 +14007,23 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>695</v>
+        <v>201</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -14023,13 +14047,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>83</v>
+        <v>679</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>83</v>
+        <v>680</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -14047,13 +14071,13 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
@@ -14065,13 +14089,13 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>83</v>
+        <v>681</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>700</v>
+        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -14088,10 +14112,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14102,7 +14126,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -14111,21 +14135,23 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>702</v>
+        <v>201</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>687</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -14149,13 +14175,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>83</v>
+        <v>610</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>83</v>
+        <v>689</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -14173,7 +14199,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -14191,13 +14217,13 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>83</v>
+        <v>681</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>706</v>
+        <v>596</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -14214,10 +14240,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14228,31 +14254,29 @@
         <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>710</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -14301,19 +14325,19 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>712</v>
+        <v>107</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -14322,10 +14346,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>713</v>
+        <v>83</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -14337,15 +14361,15 @@
         <v>83</v>
       </c>
       <c r="AR92" t="s" s="2">
-        <v>715</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14368,13 +14392,13 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>169</v>
+        <v>697</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>170</v>
+        <v>698</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -14425,7 +14449,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>171</v>
+        <v>696</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -14437,7 +14461,7 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
@@ -14446,10 +14470,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>83</v>
+        <v>668</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>172</v>
+        <v>699</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -14466,21 +14490,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>83</v>
@@ -14489,19 +14513,19 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>141</v>
+        <v>701</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>142</v>
+        <v>702</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>175</v>
+        <v>703</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>144</v>
+        <v>704</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14551,7 +14575,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>178</v>
+        <v>700</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -14563,7 +14587,7 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
@@ -14572,10 +14596,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>83</v>
+        <v>705</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>172</v>
+        <v>706</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -14592,46 +14616,44 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>653</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>141</v>
+        <v>708</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>83</v>
       </c>
@@ -14679,7 +14701,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -14691,7 +14713,7 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -14700,10 +14722,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>83</v>
+        <v>705</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>138</v>
+        <v>712</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -14720,10 +14742,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14731,10 +14753,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>96</v>
@@ -14746,19 +14768,19 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>193</v>
+        <v>648</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14783,13 +14805,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14807,34 +14829,34 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="AG96" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AN96" t="s" s="2">
-        <v>367</v>
+        <v>720</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>83</v>
@@ -14848,10 +14870,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14865,29 +14887,25 @@
         <v>95</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>726</v>
+        <v>176</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>727</v>
+        <v>177</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14911,13 +14929,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>501</v>
+        <v>83</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14935,7 +14953,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>725</v>
+        <v>179</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14944,28 +14962,28 @@
         <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>730</v>
+        <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>731</v>
+        <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>506</v>
+        <v>180</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="AQ97" t="s" s="2">
         <v>83</v>
@@ -14976,24 +14994,24 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>83</v>
@@ -15002,20 +15020,18 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>733</v>
+        <v>183</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>734</v>
+        <v>184</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
@@ -15039,13 +15055,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -15063,19 +15079,19 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>732</v>
+        <v>186</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>736</v>
+        <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>83</v>
@@ -15084,10 +15100,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>561</v>
+        <v>180</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -15104,14 +15120,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>563</v>
+        <v>659</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -15124,25 +15140,25 @@
         <v>83</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>564</v>
+        <v>660</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>565</v>
+        <v>661</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>566</v>
+        <v>158</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>567</v>
+        <v>159</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -15167,13 +15183,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>568</v>
+        <v>83</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>569</v>
+        <v>83</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -15191,7 +15207,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -15203,25 +15219,25 @@
         <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>570</v>
+        <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>572</v>
+        <v>138</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="AQ99" t="s" s="2">
         <v>83</v>
@@ -15232,10 +15248,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15243,34 +15259,34 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -15295,13 +15311,13 @@
         <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -15319,13 +15335,13 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>83</v>
@@ -15337,29 +15353,541 @@
         <v>83</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>83</v>
+        <v>729</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>648</v>
+        <v>374</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>649</v>
+        <v>375</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ100" t="s" s="2">
-        <v>83</v>
+        <v>730</v>
       </c>
       <c r="AR100" t="s" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AQ101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR101" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR102" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AQ103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR103" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AR104" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR100">
+  <autoFilter ref="A1:AR104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15369,7 +15897,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -869,7 +869,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -881,9 +881,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
@@ -905,7 +902,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`final`</t>
+    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -5371,7 +5368,7 @@
         <v>95</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>96</v>
@@ -5402,7 +5399,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -5420,10 +5417,10 @@
         <v>200</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -5456,33 +5453,33 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5508,16 +5505,16 @@
         <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5545,16 +5542,16 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5564,7 +5561,7 @@
         <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5588,27 +5585,27 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>83</v>
@@ -5633,16 +5630,16 @@
         <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5652,7 +5649,7 @@
         <v>83</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>83</v>
@@ -5670,11 +5667,11 @@
         <v>119</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5715,10 +5712,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5729,14 +5726,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5758,16 +5755,16 @@
         <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5792,14 +5789,14 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>95</v>
@@ -5831,22 +5828,22 @@
         <v>107</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5854,10 +5851,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5975,10 +5972,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6098,10 +6095,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6124,19 +6121,19 @@
         <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -6173,7 +6170,7 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -6183,7 +6180,7 @@
         <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6204,30 +6201,30 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>83</v>
@@ -6249,19 +6246,19 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -6271,7 +6268,7 @@
         <v>83</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>83</v>
@@ -6310,7 +6307,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6331,10 +6328,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6348,10 +6345,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6377,16 +6374,16 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6435,7 +6432,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6456,27 +6453,27 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6499,19 +6496,19 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6560,7 +6557,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6575,33 +6572,33 @@
         <v>107</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6624,16 +6621,16 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6683,7 +6680,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6704,13 +6701,13 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -6721,14 +6718,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6747,19 +6744,19 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6808,7 +6805,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6823,19 +6820,19 @@
         <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -6846,14 +6843,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6872,19 +6869,19 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6921,17 +6918,17 @@
         <v>83</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6946,19 +6943,19 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -6969,16 +6966,16 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="D38" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6997,19 +6994,19 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7058,7 +7055,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -7073,33 +7070,33 @@
         <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7122,16 +7119,16 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7181,7 +7178,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7202,13 +7199,13 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -7219,10 +7216,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7245,17 +7242,17 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7304,7 +7301,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7319,33 +7316,33 @@
         <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7463,10 +7460,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7586,13 +7583,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>83</v>
@@ -7614,16 +7611,16 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7706,15 +7703,15 @@
         <v>83</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7832,10 +7829,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7953,10 +7950,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7982,13 +7979,13 @@
         <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7996,49 +7993,49 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>95</v>
@@ -8076,10 +8073,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8102,13 +8099,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8159,7 +8156,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8168,7 +8165,7 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>107</v>
@@ -8197,10 +8194,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8226,13 +8223,13 @@
         <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8282,7 +8279,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8291,7 +8288,7 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>107</v>
@@ -8320,10 +8317,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8349,13 +8346,13 @@
         <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8384,28 +8381,28 @@
         <v>212</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8443,10 +8440,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8472,13 +8469,13 @@
         <v>168</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8528,7 +8525,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8552,7 +8549,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8566,10 +8563,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8595,13 +8592,13 @@
         <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8651,7 +8648,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8689,10 +8686,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8715,19 +8712,19 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8776,7 +8773,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8785,7 +8782,7 @@
         <v>95</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>107</v>
@@ -8794,30 +8791,30 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="AQ52" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8843,10 +8840,10 @@
         <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8935,10 +8932,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8967,7 +8964,7 @@
         <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>164</v>
@@ -9058,10 +9055,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9084,13 +9081,13 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9111,37 +9108,37 @@
         <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9179,10 +9176,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9208,16 +9205,16 @@
         <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9245,11 +9242,11 @@
         <v>212</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
       </c>
@@ -9266,7 +9263,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9275,7 +9272,7 @@
         <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>107</v>
@@ -9290,7 +9287,7 @@
         <v>138</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9304,14 +9301,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9333,16 +9330,16 @@
         <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9370,11 +9367,11 @@
         <v>212</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9409,19 +9406,19 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -9429,10 +9426,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9455,19 +9452,19 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9516,7 +9513,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9537,10 +9534,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9554,10 +9551,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9583,13 +9580,13 @@
         <v>207</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9615,14 +9612,14 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9639,7 +9636,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9657,30 +9654,30 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AO59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP59" t="s" s="2">
+      <c r="AQ59" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9706,16 +9703,16 @@
         <v>207</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9740,14 +9737,14 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9764,7 +9761,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9785,27 +9782,27 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9828,16 +9825,16 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9887,7 +9884,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9905,19 +9902,19 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>83</v>
@@ -9925,10 +9922,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9951,16 +9948,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10010,7 +10007,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10028,19 +10025,19 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>83</v>
@@ -10048,10 +10045,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10074,19 +10071,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10135,7 +10132,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10147,19 +10144,19 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10173,10 +10170,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10294,10 +10291,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10417,14 +10414,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10446,10 +10443,10 @@
         <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>164</v>
@@ -10504,7 +10501,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10542,10 +10539,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10568,13 +10565,13 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10625,7 +10622,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10634,7 +10631,7 @@
         <v>95</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>107</v>
@@ -10646,10 +10643,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10663,10 +10660,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10689,13 +10686,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10746,7 +10743,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10755,7 +10752,7 @@
         <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>107</v>
@@ -10767,10 +10764,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10784,10 +10781,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10813,16 +10810,16 @@
         <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10850,11 +10847,11 @@
         <v>119</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10871,7 +10868,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10889,13 +10886,13 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM69" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AN69" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10909,10 +10906,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10938,16 +10935,16 @@
         <v>207</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10972,14 +10969,14 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10996,7 +10993,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11014,13 +11011,13 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AN70" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11034,10 +11031,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11060,17 +11057,17 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -11119,7 +11116,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11143,7 +11140,7 @@
         <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11157,10 +11154,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11186,10 +11183,10 @@
         <v>182</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11240,7 +11237,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11261,10 +11258,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11278,10 +11275,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11304,16 +11301,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11363,7 +11360,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11384,10 +11381,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11401,10 +11398,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11427,16 +11424,16 @@
         <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11486,7 +11483,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11507,10 +11504,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11524,10 +11521,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11550,19 +11547,19 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11611,7 +11608,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11632,10 +11629,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11649,10 +11646,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11770,10 +11767,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11893,14 +11890,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11922,10 +11919,10 @@
         <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>164</v>
@@ -11980,7 +11977,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -12018,10 +12015,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12047,16 +12044,16 @@
         <v>207</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="O79" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12081,14 +12078,14 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y79" t="s" s="2">
+      <c r="Z79" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
       </c>
@@ -12105,7 +12102,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>95</v>
@@ -12123,30 +12120,30 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ79" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ79" t="s" s="2">
-        <v>623</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12169,19 +12166,19 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="O80" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12230,7 +12227,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12248,19 +12245,19 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>83</v>
@@ -12268,10 +12265,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12297,16 +12294,16 @@
         <v>207</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="O81" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12334,11 +12331,11 @@
         <v>212</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12364,7 +12361,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12379,7 +12376,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12393,14 +12390,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12422,16 +12419,16 @@
         <v>207</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12459,11 +12456,11 @@
         <v>212</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12480,7 +12477,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12498,19 +12495,19 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AQ82" t="s" s="2">
         <v>83</v>
@@ -12518,10 +12515,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12547,16 +12544,16 @@
         <v>84</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="N83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12605,7 +12602,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12626,10 +12623,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,168 +451,123 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>{StationNbr} and {VitalSignTO.type.id}</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Observation.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Observation.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition</t>
-  </si>
-  <si>
-    <t>bodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {observation-bodyPosition}
-</t>
-  </si>
-  <si>
-    <t>The body position during the observation</t>
-  </si>
-  <si>
-    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>VF_VitalsPosition(Qualifier)</t>
-  </si>
-  <si>
-    <t>Observation.extension:deviceCode</t>
-  </si>
-  <si>
-    <t>deviceCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {observation-deviceCode}
-</t>
-  </si>
-  <si>
-    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`</t>
-  </si>
-  <si>
-    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
-  </si>
-  <si>
-    <t>VF_VitalsDevice(Qualifier)</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:use}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {VitalSignTO.type.id}</t>
-  </si>
-  <si>
-    <t>Observation.identifier:TOid</t>
-  </si>
-  <si>
-    <t>TOid</t>
-  </si>
-  <si>
-    <t>Observation.identifier:TOid.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.identifier:TOid.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1304,10 +1259,20 @@
     <t>Observation.performer.extension.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Observation.performer.extension:site.extension</t>
   </si>
   <si>
     <t>Observation.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Observation.performer.extension:site.url</t>
@@ -1481,9 +1446,6 @@
     <t>Observation.value[x].extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.value[x].value</t>
   </si>
   <si>
@@ -1621,9 +1583,6 @@
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
-    <t>VF_VitalsSite(Qualifier)</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1649,9 +1608,6 @@
   </si>
   <si>
     <t>methodCode</t>
-  </si>
-  <si>
-    <t>VF_VitalsMethod(Qualifier)</t>
   </si>
   <si>
     <t>Observation.specimen</t>
@@ -1967,9 +1923,6 @@
   <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>all non matched Qualifier</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
@@ -2338,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ83"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3390,7 +3343,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3409,15 +3362,17 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>83</v>
@@ -3454,14 +3409,16 @@
         <v>83</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>145</v>
@@ -3488,7 +3445,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3505,41 +3462,43 @@
         <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>83</v>
       </c>
@@ -3587,7 +3546,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3596,7 +3555,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3611,7 +3570,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3620,28 +3579,26 @@
         <v>83</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>83</v>
@@ -3650,19 +3607,21 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>83</v>
       </c>
@@ -3698,19 +3657,17 @@
         <v>83</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3719,47 +3676,49 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>82</v>
@@ -3768,25 +3727,23 @@
         <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3835,7 +3792,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3847,22 +3804,22 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>83</v>
@@ -3873,7 +3830,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>167</v>
@@ -3884,11 +3841,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>83</v>
       </c>
@@ -3896,7 +3853,7 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>168</v>
@@ -3908,9 +3865,7 @@
         <v>170</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>83</v>
       </c>
@@ -3946,68 +3901,68 @@
         <v>83</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -4019,21 +3974,21 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>83</v>
       </c>
@@ -4069,19 +4024,19 @@
         <v>83</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4093,22 +4048,22 @@
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -4119,10 +4074,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4130,7 +4085,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>95</v>
@@ -4139,22 +4094,26 @@
         <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>83</v>
       </c>
@@ -4163,7 +4122,7 @@
         <v>83</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>83</v>
@@ -4178,13 +4137,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4202,7 +4161,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4214,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -4223,10 +4182,10 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>83</v>
@@ -4240,21 +4199,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>83</v>
@@ -4263,21 +4222,23 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
       </c>
@@ -4301,43 +4262,43 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
@@ -4346,10 +4307,10 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4363,10 +4324,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4374,7 +4335,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>95</v>
@@ -4383,25 +4344,25 @@
         <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4411,10 +4372,10 @@
         <v>83</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>83</v>
@@ -4426,13 +4387,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4450,7 +4411,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4462,7 +4423,7 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
@@ -4471,10 +4432,10 @@
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4488,10 +4449,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4514,20 +4475,18 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
       </c>
@@ -4539,7 +4498,7 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>83</v>
@@ -4551,13 +4510,13 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4575,7 +4534,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4596,10 +4555,10 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4613,10 +4572,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4639,20 +4598,16 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>83</v>
       </c>
@@ -4664,7 +4619,7 @@
         <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>83</v>
@@ -4700,7 +4655,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4712,7 +4667,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4721,10 +4676,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4738,10 +4693,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4764,16 +4719,16 @@
         <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4787,7 +4742,7 @@
         <v>83</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>83</v>
@@ -4823,7 +4778,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4844,10 +4799,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4861,21 +4816,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4887,16 +4842,18 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4944,13 +4901,13 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
@@ -4959,16 +4916,16 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4982,21 +4939,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -5008,16 +4965,16 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5067,13 +5024,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -5082,16 +5039,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5105,43 +5062,45 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -5166,13 +5125,13 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -5190,13 +5149,13 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>83</v>
@@ -5205,67 +5164,69 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
@@ -5289,31 +5250,29 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5328,35 +5287,37 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>83</v>
       </c>
@@ -5368,28 +5329,28 @@
         <v>95</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5399,7 +5360,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -5414,14 +5375,14 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
@@ -5438,13 +5399,13 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>83</v>
@@ -5453,25 +5414,25 @@
         <v>107</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>284</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5483,38 +5444,38 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5539,35 +5500,37 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5576,43 +5539,41 @@
         <v>107</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>295</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>95</v>
@@ -5627,20 +5588,16 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5649,7 +5606,7 @@
         <v>83</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>83</v>
@@ -5664,13 +5621,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5688,19 +5645,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5712,10 +5669,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>293</v>
+        <v>172</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5726,21 +5683,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5749,23 +5706,21 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5789,61 +5744,61 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>83</v>
@@ -5851,10 +5806,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5862,31 +5817,35 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5922,31 +5881,29 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
@@ -5955,10 +5912,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5967,26 +5924,28 @@
         <v>83</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -5995,21 +5954,23 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -6018,7 +5979,7 @@
         <v>83</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>83</v>
@@ -6045,19 +6006,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -6069,7 +6030,7 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -6078,10 +6039,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -6095,10 +6056,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6106,10 +6067,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>96</v>
@@ -6121,19 +6082,19 @@
         <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -6170,23 +6131,25 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -6201,31 +6164,29 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6246,19 +6207,19 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -6268,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>83</v>
@@ -6307,13 +6268,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -6322,33 +6283,33 @@
         <v>107</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6359,10 +6320,10 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>83</v>
@@ -6371,20 +6332,18 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -6432,13 +6391,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -6453,38 +6412,38 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6496,19 +6455,19 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6557,7 +6516,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6572,44 +6531,44 @@
         <v>107</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6621,18 +6580,20 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6668,25 +6629,23 @@
         <v>83</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
@@ -6695,19 +6654,19 @@
         <v>107</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -6718,21 +6677,23 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6744,19 +6705,19 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6805,7 +6766,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6820,44 +6781,44 @@
         <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6869,20 +6830,18 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O37" t="s" s="2">
         <v>372</v>
       </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6918,17 +6877,19 @@
         <v>83</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6943,19 +6904,19 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -6966,26 +6927,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
@@ -6994,19 +6953,17 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7055,13 +7012,13 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
@@ -7070,33 +7027,33 @@
         <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7107,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -7116,20 +7073,18 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7178,7 +7133,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7190,7 +7145,7 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -7199,13 +7154,13 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -7216,14 +7171,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7233,27 +7188,27 @@
         <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -7289,19 +7244,19 @@
         <v>83</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>390</v>
+        <v>178</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7313,38 +7268,40 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>397</v>
+        <v>172</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>399</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7365,15 +7322,17 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7422,19 +7381,19 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -7446,7 +7405,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7455,26 +7414,26 @@
         <v>83</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7486,17 +7445,15 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7533,31 +7490,31 @@
         <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7569,7 +7526,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7583,14 +7540,12 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7599,7 +7554,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7611,17 +7566,15 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>404</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7658,19 +7611,19 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7703,15 +7656,15 @@
         <v>83</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>408</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7719,7 +7672,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>95</v>
@@ -7734,22 +7687,24 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>183</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>83</v>
@@ -7791,16 +7746,16 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>185</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>83</v>
@@ -7815,7 +7770,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7829,10 +7784,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7840,10 +7795,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7855,13 +7810,13 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>142</v>
+        <v>413</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7900,31 +7855,31 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7936,7 +7891,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7950,10 +7905,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7961,7 +7916,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>95</v>
@@ -7973,19 +7928,19 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7993,7 +7948,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>83</v>
@@ -8035,19 +7990,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -8073,10 +8028,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8084,7 +8039,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>95</v>
@@ -8096,10 +8051,10 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>422</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>423</v>
@@ -8107,7 +8062,9 @@
       <c r="M47" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -8132,13 +8089,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -8156,7 +8113,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8165,7 +8122,7 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>426</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>107</v>
@@ -8194,10 +8151,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8220,16 +8177,16 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8279,7 +8236,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8288,7 +8245,7 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>107</v>
@@ -8303,7 +8260,7 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8317,10 +8274,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8343,16 +8300,16 @@
         <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8378,13 +8335,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>438</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8457,7 +8414,7 @@
         <v>95</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
@@ -8466,18 +8423,20 @@
         <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8525,7 +8484,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8534,7 +8493,7 @@
         <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>446</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>107</v>
@@ -8543,30 +8502,30 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8586,20 +8545,18 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8648,7 +8605,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>171</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8660,7 +8617,7 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8672,7 +8629,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8686,46 +8643,44 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>143</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8773,48 +8728,48 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>451</v>
+        <v>178</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8837,13 +8792,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>182</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8861,10 +8816,10 @@
         <v>83</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>83</v>
@@ -8894,7 +8849,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8932,24 +8887,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>83</v>
@@ -8958,18 +8913,20 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8993,13 +8950,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -9017,19 +8974,19 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>192</v>
+        <v>461</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -9038,10 +8995,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -9055,21 +9012,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -9081,16 +9038,20 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>452</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -9105,22 +9066,22 @@
         <v>83</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -9138,37 +9099,37 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>83</v>
@@ -9176,10 +9137,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9190,10 +9151,10 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>83</v>
@@ -9202,19 +9163,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9239,13 +9200,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>479</v>
+        <v>83</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -9263,16 +9224,16 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>480</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>107</v>
@@ -9284,10 +9245,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>138</v>
+        <v>488</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9301,14 +9262,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9327,20 +9288,18 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9364,13 +9323,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9388,13 +9347,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -9406,19 +9365,19 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -9426,10 +9385,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9452,19 +9411,19 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>495</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9489,13 +9448,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9513,13 +9472,13 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
@@ -9534,10 +9493,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9551,10 +9510,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9565,10 +9524,10 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
@@ -9577,16 +9536,16 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>207</v>
+        <v>510</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9612,13 +9571,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9636,7 +9595,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9654,30 +9613,30 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9688,10 +9647,10 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>83</v>
@@ -9700,20 +9659,18 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>207</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9737,31 +9694,31 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9779,30 +9736,30 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>83</v>
+        <v>526</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>522</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9825,18 +9782,20 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9884,37 +9843,37 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>107</v>
+        <v>533</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>528</v>
+        <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>83</v>
@@ -9922,10 +9881,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9936,7 +9895,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9948,17 +9907,15 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>533</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>534</v>
+        <v>169</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -10007,7 +9964,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>532</v>
+        <v>171</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10019,25 +9976,25 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>537</v>
+        <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>540</v>
+        <v>83</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>83</v>
@@ -10045,21 +10002,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>83</v>
@@ -10071,20 +10028,18 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>543</v>
+        <v>142</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>544</v>
+        <v>175</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -10132,7 +10087,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>541</v>
+        <v>178</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10144,7 +10099,7 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>547</v>
+        <v>146</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -10153,10 +10108,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>549</v>
+        <v>172</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10170,42 +10125,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>83</v>
+        <v>539</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>183</v>
+        <v>540</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -10253,19 +10212,19 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>185</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -10277,7 +10236,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10291,21 +10250,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -10317,17 +10276,15 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>189</v>
+        <v>545</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10376,19 +10333,19 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>192</v>
+        <v>543</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -10397,10 +10354,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>186</v>
+        <v>549</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10414,46 +10371,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10501,19 +10454,19 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -10522,10 +10475,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10539,10 +10492,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10565,16 +10518,20 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10598,13 +10555,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>560</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10622,7 +10579,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10631,7 +10588,7 @@
         <v>95</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>561</v>
+        <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>107</v>
@@ -10640,13 +10597,13 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>83</v>
+        <v>561</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>562</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10660,10 +10617,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10674,7 +10631,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>83</v>
@@ -10686,16 +10643,20 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>558</v>
+        <v>193</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10719,13 +10680,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>83</v>
+        <v>568</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>83</v>
+        <v>569</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10743,16 +10704,16 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>561</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>107</v>
@@ -10761,13 +10722,13 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>83</v>
+        <v>561</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>562</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>567</v>
+        <v>480</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10781,10 +10742,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10807,19 +10768,17 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>571</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10844,13 +10803,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>574</v>
+        <v>83</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10868,7 +10827,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10886,13 +10845,13 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10906,10 +10865,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10920,7 +10879,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10932,20 +10891,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>581</v>
-      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10969,13 +10924,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>582</v>
+        <v>83</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10993,13 +10948,13 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
@@ -11011,13 +10966,13 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>575</v>
+        <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11031,10 +10986,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11045,7 +11000,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -11054,21 +11009,21 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -11116,13 +11071,13 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
@@ -11137,10 +11092,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11154,10 +11109,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11168,7 +11123,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -11177,18 +11132,20 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -11237,13 +11194,13 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
@@ -11258,10 +11215,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11275,10 +11232,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11289,7 +11246,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -11301,18 +11258,20 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11360,7 +11319,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11381,10 +11340,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11398,10 +11357,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11412,7 +11371,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -11421,20 +11380,18 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>602</v>
+        <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>603</v>
+        <v>169</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11483,19 +11440,19 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>601</v>
+        <v>171</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11504,10 +11461,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>599</v>
+        <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>606</v>
+        <v>172</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11521,14 +11478,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11544,23 +11501,21 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>608</v>
+        <v>142</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>609</v>
+        <v>175</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11608,7 +11563,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>607</v>
+        <v>178</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11620,7 +11575,7 @@
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11629,10 +11584,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>612</v>
+        <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>613</v>
+        <v>172</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11646,42 +11601,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>83</v>
+        <v>539</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>183</v>
+        <v>540</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11729,19 +11688,19 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>185</v>
+        <v>542</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -11753,7 +11712,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11767,21 +11726,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
@@ -11790,21 +11749,23 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>189</v>
+        <v>604</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>190</v>
+        <v>605</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11828,13 +11789,13 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11852,34 +11813,34 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>192</v>
+        <v>603</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>83</v>
@@ -11890,45 +11851,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>140</v>
+        <v>609</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>554</v>
+        <v>610</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>555</v>
+        <v>443</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>164</v>
+        <v>611</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11977,37 +11938,37 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AQ78" t="s" s="2">
         <v>83</v>
@@ -12015,10 +11976,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12026,7 +11987,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>95</v>
@@ -12038,22 +11999,22 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>304</v>
+        <v>465</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12078,13 +12039,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>306</v>
+        <v>466</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>307</v>
+        <v>467</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -12102,16 +12063,16 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>107</v>
@@ -12120,41 +12081,41 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>621</v>
+        <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>311</v>
+        <v>469</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ79" t="s" s="2">
-        <v>622</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>83</v>
@@ -12163,22 +12124,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>624</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>625</v>
+        <v>472</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>626</v>
+        <v>474</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12203,13 +12164,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12227,13 +12188,13 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
@@ -12245,19 +12206,19 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>627</v>
+        <v>478</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>83</v>
@@ -12265,10 +12226,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12279,7 +12240,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -12291,19 +12252,19 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>631</v>
+        <v>531</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12328,13 +12289,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>479</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12352,16 +12313,16 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>480</v>
+        <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12373,10 +12334,10 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>138</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12385,261 +12346,11 @@
         <v>83</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AQ82" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ83" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ83">
+  <autoFilter ref="A1:AQ81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12649,7 +12360,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Vital Signs
@@ -289,6 +289,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
+    <t>VitalSignTO Pain</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>VitalSignTO Pain</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -514,6 +514,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {VitalSignTO.type.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {VitalSignTO.type.id}</t>
   </si>
   <si>
     <t>Observation.identifier:TOid</t>
@@ -842,6 +842,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
+    <t>`final` if not `entered-in-error`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -855,9 +858,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -885,13 +885,13 @@
 </t>
   </si>
   <si>
+    <t>`vital-signs`</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`vital-signs`</t>
   </si>
   <si>
     <t>Observation.category:VSCat</t>
@@ -982,13 +982,13 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>LOINC 72514-3</t>
+  </si>
+  <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>LOINC 72514-3</t>
   </si>
   <si>
     <t>Observation.code.coding:pain</t>
@@ -1021,13 +1021,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>VitalSignTO.type.name</t>
+  </si>
+  <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>VitalSignTO.type.name</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1049,6 +1049,9 @@
     <t>Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1059,9 +1062,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -1210,6 +1210,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>VitalSignTO.recorder and VitalSignTO.observer</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1220,9 +1223,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>VitalSignTO.recorder and VitalSignTO.observer</t>
   </si>
   <si>
     <t>Observation.performer.id</t>
@@ -1419,6 +1419,9 @@
 </t>
   </si>
   <si>
+    <t>VitalSignTO.value1 and VitalSignTO.units</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -1429,9 +1432,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>VitalSignTO.value1 and VitalSignTO.units</t>
   </si>
   <si>
     <t>Observation.value[x].id</t>
@@ -2335,13 +2335,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2589,13 +2589,13 @@
         <v>92</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3199,10 +3199,10 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>83</v>
@@ -3322,10 +3322,10 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>83</v>
@@ -3445,10 +3445,10 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>83</v>
@@ -3570,10 +3570,10 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>83</v>
@@ -3685,10 +3685,10 @@
         <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>161</v>
@@ -3697,10 +3697,10 @@
         <v>162</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3807,13 +3807,13 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>161</v>
@@ -3822,7 +3822,7 @@
         <v>162</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>83</v>
@@ -3937,10 +3937,10 @@
         <v>83</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
@@ -4060,10 +4060,10 @@
         <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -4182,13 +4182,13 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -4307,13 +4307,13 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -4432,13 +4432,13 @@
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4555,13 +4555,13 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4676,13 +4676,13 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4799,13 +4799,13 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4916,19 +4916,19 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -5039,19 +5039,19 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -5179,10 +5179,10 @@
         <v>269</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5287,7 +5287,7 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
@@ -5296,16 +5296,16 @@
         <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>281</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5423,13 +5423,13 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>83</v>
@@ -5539,25 +5539,25 @@
         <v>107</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5669,10 +5669,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5792,10 +5792,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5906,25 +5906,25 @@
         <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -6039,13 +6039,13 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
@@ -6158,25 +6158,25 @@
         <v>107</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -6286,10 +6286,10 @@
         <v>330</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>332</v>
@@ -6298,10 +6298,10 @@
         <v>333</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6412,16 +6412,16 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AO33" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="AP33" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>83</v>
@@ -6531,22 +6531,22 @@
         <v>107</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6654,22 +6654,22 @@
         <v>107</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>83</v>
@@ -6781,25 +6781,25 @@
         <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AP36" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AQ36" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -6910,16 +6910,16 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -7030,10 +7030,10 @@
         <v>381</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>383</v>
@@ -7042,10 +7042,10 @@
         <v>384</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -7157,10 +7157,10 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -7280,10 +7280,10 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7396,7 +7396,7 @@
         <v>146</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
@@ -7414,7 +7414,7 @@
         <v>83</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7526,10 +7526,10 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7770,10 +7770,10 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7891,10 +7891,10 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -8014,10 +8014,10 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -8137,10 +8137,10 @@
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -8260,10 +8260,10 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8383,10 +8383,10 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8499,10 +8499,10 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>448</v>
@@ -8511,10 +8511,10 @@
         <v>449</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>451</v>
@@ -8995,13 +8995,13 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -9117,22 +9117,22 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AQ55" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -9245,13 +9245,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9365,22 +9365,22 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -9493,13 +9493,13 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9613,22 +9613,22 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AO59" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -9736,22 +9736,22 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -9864,13 +9864,13 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9988,10 +9988,10 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -10111,10 +10111,10 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -10236,10 +10236,10 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10354,13 +10354,13 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10475,13 +10475,13 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -10597,16 +10597,16 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10722,16 +10722,16 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10851,10 +10851,10 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10969,13 +10969,13 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>83</v>
@@ -11092,13 +11092,13 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -11215,13 +11215,13 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>83</v>
@@ -11340,13 +11340,13 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>83</v>
@@ -11464,10 +11464,10 @@
         <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>83</v>
@@ -11587,10 +11587,10 @@
         <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>83</v>
@@ -11712,10 +11712,10 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>83</v>
@@ -11831,19 +11831,19 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AO77" t="s" s="2">
+      <c r="AP77" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>83</v>
@@ -11956,22 +11956,22 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -12084,13 +12084,13 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>83</v>
@@ -12206,22 +12206,22 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AO80" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ80" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AQ80" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -12334,13 +12334,13 @@
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.vitalsPain.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
